--- a/Dataset/list.xlsx
+++ b/Dataset/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FMFI\1. semester\Bakalárka\na_git\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187A8333-15CB-4C19-8CA3-54BEE1CFEBD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A382FB7F-459E-44C9-81F9-C11EA7996D62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="180">
   <si>
     <t>Číslo vložky</t>
   </si>
@@ -451,13 +451,127 @@
   </si>
   <si>
     <t>Mgr. Dagmara Friedmannová, JUDr. Ondrej Matejka</t>
+  </si>
+  <si>
+    <t>test_majitel\7618.pdf</t>
+  </si>
+  <si>
+    <t>Ing. Milan Kučečka, Ing. Marek Gorun</t>
+  </si>
+  <si>
+    <t>test_majitel\32237.pdf</t>
+  </si>
+  <si>
+    <t>Ing. Roman Jurda, Ing. Juraj Vrábel</t>
+  </si>
+  <si>
+    <t>test_majitel\32330.pdf</t>
+  </si>
+  <si>
+    <t>Peter Gatial, Mgr. Lenka Gatialová</t>
+  </si>
+  <si>
+    <t>test_majitel\17279.pdf</t>
+  </si>
+  <si>
+    <t>Ing. Ivan Lovíšek</t>
+  </si>
+  <si>
+    <t>test_majitel\34013.pdf</t>
+  </si>
+  <si>
+    <t>Ján Samek</t>
+  </si>
+  <si>
+    <t>test_majitel\15269.pdf</t>
+  </si>
+  <si>
+    <t>Roman Danda, Ing. Lubomír Hezina, Ing. Karel Kovář</t>
+  </si>
+  <si>
+    <t>test_majitel\316</t>
+  </si>
+  <si>
+    <t>Ing. Ján Baran</t>
+  </si>
+  <si>
+    <t>test_majitel\102364.pdf</t>
+  </si>
+  <si>
+    <t>Ing. Peter Polakovič</t>
+  </si>
+  <si>
+    <t>test_majitel\17569.pdf</t>
+  </si>
+  <si>
+    <t>Julius Prüger</t>
+  </si>
+  <si>
+    <t>test_majitel\115370</t>
+  </si>
+  <si>
+    <t>Jozef Žido</t>
+  </si>
+  <si>
+    <t>test_majitel\102472.pdf</t>
+  </si>
+  <si>
+    <t>Ing. Marian Mojžiš</t>
+  </si>
+  <si>
+    <t>test_majitel\5396.pdf</t>
+  </si>
+  <si>
+    <t>PhDr. Daniel Dobrovič</t>
+  </si>
+  <si>
+    <t>test_majitel\16656.pdf</t>
+  </si>
+  <si>
+    <t>Ing. Vladimír Bugár, Ing. Jozef Kuruc</t>
+  </si>
+  <si>
+    <t>test_majitel\6157.pdf</t>
+  </si>
+  <si>
+    <t>Ing. Jozef Čapkovič</t>
+  </si>
+  <si>
+    <t>test_majitel\69727.pdf</t>
+  </si>
+  <si>
+    <t>Ing. Radoslav Lackovič</t>
+  </si>
+  <si>
+    <t>test_majitel\72393.pdf</t>
+  </si>
+  <si>
+    <t>Soňa Ružanská</t>
+  </si>
+  <si>
+    <t>test_majitel\39936.pdf</t>
+  </si>
+  <si>
+    <t>Juraj Ostrolucký, Róbert Fertály</t>
+  </si>
+  <si>
+    <t>test_majitel\58782.pdf</t>
+  </si>
+  <si>
+    <t>Pieter Ján Kleibergen</t>
+  </si>
+  <si>
+    <t>test_majitel\64582.pdf</t>
+  </si>
+  <si>
+    <t>Ing. Zuzana Klimeková</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -471,6 +585,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -493,7 +620,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -516,13 +643,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
@@ -806,8 +936,8 @@
   <dimension ref="A1:G153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M18" sqref="M18"/>
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B133" sqref="B133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1112,7 +1242,7 @@
       <c r="B13" s="8">
         <v>38</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="15">
         <v>45232270</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -2041,15 +2171,15 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
@@ -2076,7 +2206,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
-        <f>A53+1</f>
+        <f t="shared" ref="A54:A68" si="1">A53+1</f>
         <v>2</v>
       </c>
       <c r="B54" s="8">
@@ -2100,7 +2230,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
-        <f>A54+1</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="B55" s="8">
@@ -2124,7 +2254,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
-        <f>A55+1</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B56" s="6"/>
@@ -2132,7 +2262,7 @@
       <c r="D56" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E56" s="15"/>
+      <c r="E56" s="14"/>
       <c r="F56" s="7" t="s">
         <v>41</v>
       </c>
@@ -2142,7 +2272,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
-        <f>A56+1</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B57" s="6"/>
@@ -2150,7 +2280,7 @@
       <c r="D57" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E57" s="15"/>
+      <c r="E57" s="14"/>
       <c r="F57" s="7" t="s">
         <v>41</v>
       </c>
@@ -2160,7 +2290,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
-        <f>A57+1</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B58" s="6"/>
@@ -2168,7 +2298,7 @@
       <c r="D58" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E58" s="15"/>
+      <c r="E58" s="14"/>
       <c r="F58" s="7" t="s">
         <v>41</v>
       </c>
@@ -2178,7 +2308,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
-        <f>A58+1</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B59" s="6"/>
@@ -2186,7 +2316,7 @@
       <c r="D59" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E59" s="15"/>
+      <c r="E59" s="14"/>
       <c r="F59" s="7" t="s">
         <v>41</v>
       </c>
@@ -2196,7 +2326,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
-        <f>A59+1</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B60" s="6"/>
@@ -2204,7 +2334,7 @@
       <c r="D60" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E60" s="15"/>
+      <c r="E60" s="14"/>
       <c r="F60" s="7" t="s">
         <v>41</v>
       </c>
@@ -2214,7 +2344,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
-        <f>A60+1</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B61" s="6"/>
@@ -2222,7 +2352,7 @@
       <c r="D61" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E61" s="15"/>
+      <c r="E61" s="14"/>
       <c r="F61" s="7" t="s">
         <v>41</v>
       </c>
@@ -2232,7 +2362,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
-        <f>A61+1</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B62" s="6"/>
@@ -2240,7 +2370,7 @@
       <c r="D62" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E62" s="15"/>
+      <c r="E62" s="14"/>
       <c r="F62" s="7" t="s">
         <v>41</v>
       </c>
@@ -2250,7 +2380,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
-        <f>A62+1</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B63" s="6"/>
@@ -2258,7 +2388,7 @@
       <c r="D63" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E63" s="15"/>
+      <c r="E63" s="14"/>
       <c r="F63" s="7" t="s">
         <v>41</v>
       </c>
@@ -2268,7 +2398,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
-        <f>A63+1</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B64" s="6"/>
@@ -2276,7 +2406,7 @@
       <c r="D64" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E64" s="15"/>
+      <c r="E64" s="14"/>
       <c r="F64" s="7" t="s">
         <v>41</v>
       </c>
@@ -2286,7 +2416,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
-        <f>A64+1</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B65" s="6"/>
@@ -2294,7 +2424,7 @@
       <c r="D65" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E65" s="15"/>
+      <c r="E65" s="14"/>
       <c r="F65" s="7" t="s">
         <v>41</v>
       </c>
@@ -2304,7 +2434,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
-        <f>A65+1</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B66" s="6"/>
@@ -2312,7 +2442,7 @@
       <c r="D66" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E66" s="15"/>
+      <c r="E66" s="14"/>
       <c r="F66" s="7" t="s">
         <v>41</v>
       </c>
@@ -2322,7 +2452,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
-        <f>A66+1</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B67" s="6"/>
@@ -2330,7 +2460,7 @@
       <c r="D67" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E67" s="15"/>
+      <c r="E67" s="14"/>
       <c r="F67" s="7" t="s">
         <v>41</v>
       </c>
@@ -2340,7 +2470,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
-        <f>A67+1</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="B68" s="6"/>
@@ -2348,7 +2478,7 @@
       <c r="D68" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E68" s="15"/>
+      <c r="E68" s="14"/>
       <c r="F68" s="7" t="s">
         <v>41</v>
       </c>
@@ -2358,7 +2488,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
-        <f t="shared" ref="A69:A101" si="1">A68+1</f>
+        <f t="shared" ref="A69:A101" si="2">A68+1</f>
         <v>17</v>
       </c>
       <c r="B69" s="6"/>
@@ -2366,7 +2496,7 @@
       <c r="D69" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E69" s="15"/>
+      <c r="E69" s="14"/>
       <c r="F69" s="7" t="s">
         <v>41</v>
       </c>
@@ -2376,7 +2506,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="B70" s="6"/>
@@ -2384,7 +2514,7 @@
       <c r="D70" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E70" s="15"/>
+      <c r="E70" s="14"/>
       <c r="F70" s="7" t="s">
         <v>41</v>
       </c>
@@ -2394,7 +2524,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="B71" s="6"/>
@@ -2402,7 +2532,7 @@
       <c r="D71" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E71" s="15"/>
+      <c r="E71" s="14"/>
       <c r="F71" s="7" t="s">
         <v>41</v>
       </c>
@@ -2412,7 +2542,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="B72" s="6"/>
@@ -2420,7 +2550,7 @@
       <c r="D72" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E72" s="15"/>
+      <c r="E72" s="14"/>
       <c r="F72" s="7" t="s">
         <v>41</v>
       </c>
@@ -2430,7 +2560,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="B73" s="6"/>
@@ -2438,7 +2568,7 @@
       <c r="D73" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E73" s="15"/>
+      <c r="E73" s="14"/>
       <c r="F73" s="7" t="s">
         <v>41</v>
       </c>
@@ -2448,7 +2578,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="B74" s="6"/>
@@ -2456,7 +2586,7 @@
       <c r="D74" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E74" s="15"/>
+      <c r="E74" s="14"/>
       <c r="F74" s="7" t="s">
         <v>41</v>
       </c>
@@ -2466,7 +2596,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="B75" s="6"/>
@@ -2474,7 +2604,7 @@
       <c r="D75" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E75" s="15"/>
+      <c r="E75" s="14"/>
       <c r="F75" s="7" t="s">
         <v>41</v>
       </c>
@@ -2484,7 +2614,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="B76" s="6"/>
@@ -2492,7 +2622,7 @@
       <c r="D76" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E76" s="15"/>
+      <c r="E76" s="14"/>
       <c r="F76" s="7" t="s">
         <v>41</v>
       </c>
@@ -2502,7 +2632,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="B77" s="6"/>
@@ -2510,7 +2640,7 @@
       <c r="D77" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E77" s="15"/>
+      <c r="E77" s="14"/>
       <c r="F77" s="7" t="s">
         <v>41</v>
       </c>
@@ -2520,7 +2650,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="B78" s="6"/>
@@ -2528,7 +2658,7 @@
       <c r="D78" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E78" s="15"/>
+      <c r="E78" s="14"/>
       <c r="F78" s="7" t="s">
         <v>41</v>
       </c>
@@ -2538,7 +2668,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="B79" s="6"/>
@@ -2546,7 +2676,7 @@
       <c r="D79" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E79" s="15"/>
+      <c r="E79" s="14"/>
       <c r="F79" s="7" t="s">
         <v>41</v>
       </c>
@@ -2556,7 +2686,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="B80" s="6"/>
@@ -2564,7 +2694,7 @@
       <c r="D80" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E80" s="15"/>
+      <c r="E80" s="14"/>
       <c r="F80" s="7" t="s">
         <v>41</v>
       </c>
@@ -2574,7 +2704,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="B81" s="6"/>
@@ -2582,7 +2712,7 @@
       <c r="D81" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E81" s="15"/>
+      <c r="E81" s="14"/>
       <c r="F81" s="7" t="s">
         <v>41</v>
       </c>
@@ -2592,7 +2722,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="B82" s="6"/>
@@ -2600,7 +2730,7 @@
       <c r="D82" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E82" s="15"/>
+      <c r="E82" s="14"/>
       <c r="F82" s="7" t="s">
         <v>41</v>
       </c>
@@ -2610,7 +2740,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="B83" s="6"/>
@@ -2618,7 +2748,7 @@
       <c r="D83" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E83" s="15"/>
+      <c r="E83" s="14"/>
       <c r="F83" s="7" t="s">
         <v>41</v>
       </c>
@@ -2628,7 +2758,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="B84" s="6"/>
@@ -2636,7 +2766,7 @@
       <c r="D84" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E84" s="15"/>
+      <c r="E84" s="14"/>
       <c r="F84" s="7" t="s">
         <v>41</v>
       </c>
@@ -2646,7 +2776,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="B85" s="6"/>
@@ -2654,7 +2784,7 @@
       <c r="D85" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E85" s="15"/>
+      <c r="E85" s="14"/>
       <c r="F85" s="7" t="s">
         <v>41</v>
       </c>
@@ -2664,7 +2794,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="B86" s="6"/>
@@ -2672,7 +2802,7 @@
       <c r="D86" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E86" s="15"/>
+      <c r="E86" s="14"/>
       <c r="F86" s="7" t="s">
         <v>41</v>
       </c>
@@ -2682,7 +2812,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="B87" s="6"/>
@@ -2690,7 +2820,7 @@
       <c r="D87" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E87" s="15"/>
+      <c r="E87" s="14"/>
       <c r="F87" s="7" t="s">
         <v>41</v>
       </c>
@@ -2700,7 +2830,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="B88" s="6"/>
@@ -2708,7 +2838,7 @@
       <c r="D88" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E88" s="15"/>
+      <c r="E88" s="14"/>
       <c r="F88" s="7" t="s">
         <v>41</v>
       </c>
@@ -2718,7 +2848,7 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="B89" s="6"/>
@@ -2726,7 +2856,7 @@
       <c r="D89" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E89" s="15"/>
+      <c r="E89" s="14"/>
       <c r="F89" s="7" t="s">
         <v>41</v>
       </c>
@@ -2736,7 +2866,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="B90" s="6"/>
@@ -2744,7 +2874,7 @@
       <c r="D90" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E90" s="15"/>
+      <c r="E90" s="14"/>
       <c r="F90" s="7" t="s">
         <v>41</v>
       </c>
@@ -2754,7 +2884,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="B91" s="6"/>
@@ -2762,7 +2892,7 @@
       <c r="D91" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E91" s="15"/>
+      <c r="E91" s="14"/>
       <c r="F91" s="7" t="s">
         <v>41</v>
       </c>
@@ -2772,7 +2902,7 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="B92" s="6"/>
@@ -2780,7 +2910,7 @@
       <c r="D92" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E92" s="15"/>
+      <c r="E92" s="14"/>
       <c r="F92" s="7" t="s">
         <v>41</v>
       </c>
@@ -2790,7 +2920,7 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="B93" s="6"/>
@@ -2798,7 +2928,7 @@
       <c r="D93" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E93" s="15"/>
+      <c r="E93" s="14"/>
       <c r="F93" s="7" t="s">
         <v>41</v>
       </c>
@@ -2808,7 +2938,7 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="B94" s="6"/>
@@ -2816,7 +2946,7 @@
       <c r="D94" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E94" s="15"/>
+      <c r="E94" s="14"/>
       <c r="F94" s="7" t="s">
         <v>41</v>
       </c>
@@ -2826,7 +2956,7 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="B95" s="6"/>
@@ -2834,7 +2964,7 @@
       <c r="D95" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E95" s="15"/>
+      <c r="E95" s="14"/>
       <c r="F95" s="7" t="s">
         <v>41</v>
       </c>
@@ -2844,7 +2974,7 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="B96" s="6"/>
@@ -2852,7 +2982,7 @@
       <c r="D96" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E96" s="15"/>
+      <c r="E96" s="14"/>
       <c r="F96" s="7" t="s">
         <v>41</v>
       </c>
@@ -2862,7 +2992,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="B97" s="6"/>
@@ -2870,7 +3000,7 @@
       <c r="D97" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E97" s="15"/>
+      <c r="E97" s="14"/>
       <c r="F97" s="7" t="s">
         <v>41</v>
       </c>
@@ -2880,7 +3010,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="B98" s="6"/>
@@ -2888,7 +3018,7 @@
       <c r="D98" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E98" s="15"/>
+      <c r="E98" s="14"/>
       <c r="F98" s="7" t="s">
         <v>41</v>
       </c>
@@ -2898,7 +3028,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="B99" s="6"/>
@@ -2906,7 +3036,7 @@
       <c r="D99" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E99" s="15"/>
+      <c r="E99" s="14"/>
       <c r="F99" s="7" t="s">
         <v>41</v>
       </c>
@@ -2916,7 +3046,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="B100" s="6"/>
@@ -2924,7 +3054,7 @@
       <c r="D100" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E100" s="15"/>
+      <c r="E100" s="14"/>
       <c r="F100" s="7" t="s">
         <v>41</v>
       </c>
@@ -2934,7 +3064,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
       <c r="B101" s="6"/>
@@ -2942,7 +3072,7 @@
       <c r="D101" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E101" s="15"/>
+      <c r="E101" s="14"/>
       <c r="F101" s="7" t="s">
         <v>41</v>
       </c>
@@ -2960,7 +3090,7 @@
       <c r="D102" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E102" s="15"/>
+      <c r="E102" s="14"/>
       <c r="F102" s="7" t="s">
         <v>41</v>
       </c>
@@ -2969,15 +3099,15 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A103" s="14" t="s">
+      <c r="A103" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="B103" s="14"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
-      <c r="G103" s="14"/>
+      <c r="B103" s="16"/>
+      <c r="C103" s="16"/>
+      <c r="D103" s="16"/>
+      <c r="E103" s="16"/>
+      <c r="F103" s="16"/>
+      <c r="G103" s="16"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="6">
@@ -3028,7 +3158,7 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="6">
-        <f t="shared" ref="A106:A153" si="2">A105+1</f>
+        <f t="shared" ref="A106:A153" si="3">A105+1</f>
         <v>3</v>
       </c>
       <c r="B106" s="8">
@@ -3052,7 +3182,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B107" s="8">
@@ -3076,7 +3206,7 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B108" s="8">
@@ -3100,7 +3230,7 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B109" s="8">
@@ -3124,7 +3254,7 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="B110" s="8">
@@ -3148,7 +3278,7 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B111" s="8">
@@ -3172,7 +3302,7 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="B112" s="8">
@@ -3196,7 +3326,7 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B113" s="8">
@@ -3220,7 +3350,7 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="B114" s="8">
@@ -3242,351 +3372,465 @@
         <v>140</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A115" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="B115" s="6"/>
-      <c r="C115" s="13"/>
+      <c r="B115" s="17">
+        <v>289</v>
+      </c>
+      <c r="C115" s="17">
+        <v>36499439</v>
+      </c>
       <c r="D115" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E115" s="15"/>
+      <c r="E115" s="12" t="s">
+        <v>143</v>
+      </c>
       <c r="F115" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A116" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="B116" s="6"/>
-      <c r="C116" s="13"/>
+      <c r="B116" s="17">
+        <v>295</v>
+      </c>
+      <c r="C116" s="17">
+        <v>35872926</v>
+      </c>
       <c r="D116" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E116" s="15"/>
+      <c r="E116" s="18" t="s">
+        <v>145</v>
+      </c>
       <c r="F116" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A117" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="B117" s="6"/>
-      <c r="C117" s="13"/>
+      <c r="B117" s="17">
+        <v>302</v>
+      </c>
+      <c r="C117" s="17">
+        <v>35791187</v>
+      </c>
       <c r="D117" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E117" s="15"/>
+      <c r="E117" s="18" t="s">
+        <v>147</v>
+      </c>
       <c r="F117" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A118" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="B118" s="6"/>
-      <c r="C118" s="13"/>
+      <c r="B118" s="17">
+        <v>307</v>
+      </c>
+      <c r="C118" s="17">
+        <v>31580220</v>
+      </c>
       <c r="D118" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E118" s="15"/>
+      <c r="E118" s="18" t="s">
+        <v>149</v>
+      </c>
       <c r="F118" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A119" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="B119" s="6"/>
-      <c r="C119" s="13"/>
+      <c r="B119" s="17">
+        <v>312</v>
+      </c>
+      <c r="C119" s="17">
+        <v>47360119</v>
+      </c>
       <c r="D119" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E119" s="15"/>
+      <c r="E119" s="18" t="s">
+        <v>151</v>
+      </c>
       <c r="F119" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A120" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="B120" s="6"/>
-      <c r="C120" s="13"/>
+      <c r="B120" s="17">
+        <v>316</v>
+      </c>
+      <c r="C120" s="17">
+        <v>36385492</v>
+      </c>
       <c r="D120" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E120" s="15"/>
+      <c r="E120" s="19" t="s">
+        <v>153</v>
+      </c>
       <c r="F120" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A121" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="B121" s="6"/>
-      <c r="C121" s="13"/>
+      <c r="B121" s="17">
+        <v>317</v>
+      </c>
+      <c r="C121" s="17">
+        <v>44803401</v>
+      </c>
       <c r="D121" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E121" s="15"/>
+      <c r="E121" s="18" t="s">
+        <v>155</v>
+      </c>
       <c r="F121" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A122" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="B122" s="6"/>
-      <c r="C122" s="13"/>
+      <c r="B122" s="17">
+        <v>332</v>
+      </c>
+      <c r="C122" s="17">
+        <v>48108791</v>
+      </c>
       <c r="D122" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E122" s="15"/>
+      <c r="E122" s="18" t="s">
+        <v>157</v>
+      </c>
       <c r="F122" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A123" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="B123" s="6"/>
-      <c r="C123" s="13"/>
+      <c r="B123" s="17">
+        <v>350</v>
+      </c>
+      <c r="C123" s="17">
+        <v>612758</v>
+      </c>
       <c r="D123" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E123" s="15"/>
+      <c r="E123" s="18" t="s">
+        <v>159</v>
+      </c>
       <c r="F123" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A124" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="B124" s="6"/>
-      <c r="C124" s="13"/>
+      <c r="B124" s="17">
+        <v>367</v>
+      </c>
+      <c r="C124" s="17">
+        <v>31444253</v>
+      </c>
       <c r="D124" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E124" s="15"/>
+      <c r="E124" s="18" t="s">
+        <v>161</v>
+      </c>
       <c r="F124" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A125" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="B125" s="6"/>
-      <c r="C125" s="13"/>
+      <c r="B125" s="17">
+        <v>368</v>
+      </c>
+      <c r="C125" s="17">
+        <v>31415261</v>
+      </c>
       <c r="D125" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E125" s="15"/>
+      <c r="E125" s="18" t="s">
+        <v>163</v>
+      </c>
       <c r="F125" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A126" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="B126" s="6"/>
-      <c r="C126" s="13"/>
+      <c r="B126" s="17">
+        <v>369</v>
+      </c>
+      <c r="C126" s="17">
+        <v>43818030</v>
+      </c>
       <c r="D126" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E126" s="15"/>
+      <c r="E126" s="18" t="s">
+        <v>165</v>
+      </c>
       <c r="F126" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A127" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="B127" s="6"/>
-      <c r="C127" s="13"/>
+      <c r="B127" s="17">
+        <v>373</v>
+      </c>
+      <c r="C127" s="17">
+        <v>36526606</v>
+      </c>
       <c r="D127" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E127" s="15"/>
+      <c r="E127" s="18" t="s">
+        <v>167</v>
+      </c>
       <c r="F127" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A128" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="B128" s="6"/>
-      <c r="C128" s="13"/>
+      <c r="B128" s="17">
+        <v>380</v>
+      </c>
+      <c r="C128" s="17">
+        <v>44295588</v>
+      </c>
       <c r="D128" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E128" s="15"/>
+      <c r="E128" s="18" t="s">
+        <v>169</v>
+      </c>
       <c r="F128" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A129" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="B129" s="6"/>
-      <c r="C129" s="13"/>
+      <c r="B129" s="17">
+        <v>382</v>
+      </c>
+      <c r="C129" s="17">
+        <v>36462110</v>
+      </c>
       <c r="D129" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E129" s="15"/>
+      <c r="E129" s="18" t="s">
+        <v>171</v>
+      </c>
       <c r="F129" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A130" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="B130" s="6"/>
-      <c r="C130" s="13"/>
+      <c r="B130" s="17">
+        <v>389</v>
+      </c>
+      <c r="C130" s="17">
+        <v>44966873</v>
+      </c>
       <c r="D130" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E130" s="15"/>
+      <c r="E130" s="18" t="s">
+        <v>173</v>
+      </c>
       <c r="F130" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A131" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="B131" s="6"/>
-      <c r="C131" s="13"/>
+      <c r="B131" s="17">
+        <v>390</v>
+      </c>
+      <c r="C131" s="17">
+        <v>691542</v>
+      </c>
       <c r="D131" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E131" s="15"/>
+      <c r="E131" s="19" t="s">
+        <v>175</v>
+      </c>
       <c r="F131" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A132" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="B132" s="6"/>
-      <c r="C132" s="13"/>
+      <c r="B132" s="17">
+        <v>452</v>
+      </c>
+      <c r="C132" s="17">
+        <v>31351611</v>
+      </c>
       <c r="D132" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E132" s="15"/>
+      <c r="E132" s="18" t="s">
+        <v>177</v>
+      </c>
       <c r="F132" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A133" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="B133" s="6"/>
-      <c r="C133" s="13"/>
+      <c r="B133" s="17">
+        <v>481</v>
+      </c>
+      <c r="C133" s="17">
+        <v>697591</v>
+      </c>
       <c r="D133" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E133" s="15"/>
+      <c r="E133" s="18" t="s">
+        <v>179</v>
+      </c>
       <c r="F133" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="B134" s="6"/>
@@ -3594,7 +3838,7 @@
       <c r="D134" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E134" s="15"/>
+      <c r="E134" s="14"/>
       <c r="F134" s="7" t="s">
         <v>7</v>
       </c>
@@ -3604,7 +3848,7 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="B135" s="6"/>
@@ -3612,7 +3856,7 @@
       <c r="D135" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E135" s="15"/>
+      <c r="E135" s="14"/>
       <c r="F135" s="7" t="s">
         <v>7</v>
       </c>
@@ -3622,7 +3866,7 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="B136" s="6"/>
@@ -3630,7 +3874,7 @@
       <c r="D136" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E136" s="15"/>
+      <c r="E136" s="14"/>
       <c r="F136" s="7" t="s">
         <v>7</v>
       </c>
@@ -3640,7 +3884,7 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="B137" s="6"/>
@@ -3648,7 +3892,7 @@
       <c r="D137" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E137" s="15"/>
+      <c r="E137" s="14"/>
       <c r="F137" s="7" t="s">
         <v>7</v>
       </c>
@@ -3658,7 +3902,7 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="B138" s="6"/>
@@ -3666,7 +3910,7 @@
       <c r="D138" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E138" s="15"/>
+      <c r="E138" s="14"/>
       <c r="F138" s="7" t="s">
         <v>7</v>
       </c>
@@ -3676,7 +3920,7 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="B139" s="6"/>
@@ -3684,7 +3928,7 @@
       <c r="D139" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E139" s="15"/>
+      <c r="E139" s="14"/>
       <c r="F139" s="7" t="s">
         <v>7</v>
       </c>
@@ -3694,7 +3938,7 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="B140" s="6"/>
@@ -3702,7 +3946,7 @@
       <c r="D140" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E140" s="15"/>
+      <c r="E140" s="14"/>
       <c r="F140" s="7" t="s">
         <v>7</v>
       </c>
@@ -3712,7 +3956,7 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="B141" s="6"/>
@@ -3720,7 +3964,7 @@
       <c r="D141" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E141" s="15"/>
+      <c r="E141" s="14"/>
       <c r="F141" s="7" t="s">
         <v>7</v>
       </c>
@@ -3730,7 +3974,7 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="B142" s="6"/>
@@ -3738,7 +3982,7 @@
       <c r="D142" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E142" s="15"/>
+      <c r="E142" s="14"/>
       <c r="F142" s="7" t="s">
         <v>7</v>
       </c>
@@ -3748,7 +3992,7 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="B143" s="6"/>
@@ -3756,7 +4000,7 @@
       <c r="D143" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E143" s="15"/>
+      <c r="E143" s="14"/>
       <c r="F143" s="7" t="s">
         <v>7</v>
       </c>
@@ -3766,7 +4010,7 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="B144" s="6"/>
@@ -3774,7 +4018,7 @@
       <c r="D144" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E144" s="15"/>
+      <c r="E144" s="14"/>
       <c r="F144" s="7" t="s">
         <v>7</v>
       </c>
@@ -3784,7 +4028,7 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="B145" s="6"/>
@@ -3792,7 +4036,7 @@
       <c r="D145" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E145" s="15"/>
+      <c r="E145" s="14"/>
       <c r="F145" s="7" t="s">
         <v>7</v>
       </c>
@@ -3802,7 +4046,7 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="B146" s="6"/>
@@ -3810,7 +4054,7 @@
       <c r="D146" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E146" s="15"/>
+      <c r="E146" s="14"/>
       <c r="F146" s="7" t="s">
         <v>7</v>
       </c>
@@ -3820,7 +4064,7 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="B147" s="6"/>
@@ -3828,7 +4072,7 @@
       <c r="D147" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E147" s="15"/>
+      <c r="E147" s="14"/>
       <c r="F147" s="7" t="s">
         <v>7</v>
       </c>
@@ -3838,7 +4082,7 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="B148" s="6"/>
@@ -3846,7 +4090,7 @@
       <c r="D148" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E148" s="15"/>
+      <c r="E148" s="14"/>
       <c r="F148" s="7" t="s">
         <v>7</v>
       </c>
@@ -3856,7 +4100,7 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>46</v>
       </c>
       <c r="B149" s="6"/>
@@ -3864,7 +4108,7 @@
       <c r="D149" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E149" s="15"/>
+      <c r="E149" s="14"/>
       <c r="F149" s="7" t="s">
         <v>7</v>
       </c>
@@ -3874,7 +4118,7 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>47</v>
       </c>
       <c r="B150" s="6"/>
@@ -3882,7 +4126,7 @@
       <c r="D150" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E150" s="15"/>
+      <c r="E150" s="14"/>
       <c r="F150" s="7" t="s">
         <v>7</v>
       </c>
@@ -3892,7 +4136,7 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="B151" s="6"/>
@@ -3900,7 +4144,7 @@
       <c r="D151" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E151" s="15"/>
+      <c r="E151" s="14"/>
       <c r="F151" s="7" t="s">
         <v>7</v>
       </c>
@@ -3910,7 +4154,7 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>49</v>
       </c>
       <c r="B152" s="6"/>
@@ -3918,7 +4162,7 @@
       <c r="D152" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E152" s="15"/>
+      <c r="E152" s="14"/>
       <c r="F152" s="7" t="s">
         <v>7</v>
       </c>
@@ -3928,7 +4172,7 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="B153" s="6"/>
@@ -3936,7 +4180,7 @@
       <c r="D153" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E153" s="15"/>
+      <c r="E153" s="14"/>
       <c r="F153" s="7" t="s">
         <v>7</v>
       </c>

--- a/Dataset/list.xlsx
+++ b/Dataset/list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FMFI\1. semester\Bakalárka\na_git\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A382FB7F-459E-44C9-81F9-C11EA7996D62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6688ACCC-992E-411D-B69F-ABD963F1D41D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="225">
   <si>
     <t>Číslo vložky</t>
   </si>
@@ -384,9 +384,6 @@
     <t>Majitelia-testovanie</t>
   </si>
   <si>
-    <t>test_majitel\</t>
-  </si>
-  <si>
     <t>test_majitel\12541.pdf</t>
   </si>
   <si>
@@ -565,6 +562,144 @@
   </si>
   <si>
     <t>Ing. Zuzana Klimeková</t>
+  </si>
+  <si>
+    <t>test_majitel\34459.pdf</t>
+  </si>
+  <si>
+    <t>Ing. Vojtech Bundzel</t>
+  </si>
+  <si>
+    <t>test_majitel\30982.pdf</t>
+  </si>
+  <si>
+    <t>Ján Mudroch</t>
+  </si>
+  <si>
+    <t>test_majitel\16762.pdf</t>
+  </si>
+  <si>
+    <t>Ing. Dezider Machovec</t>
+  </si>
+  <si>
+    <t>test_majitel\30933.pdf</t>
+  </si>
+  <si>
+    <t>Martin Meško</t>
+  </si>
+  <si>
+    <t>test_majitel\33882.pdf</t>
+  </si>
+  <si>
+    <t>PaedDr. Nadežda Simanová, Ing. Michal Siman</t>
+  </si>
+  <si>
+    <t>test_majitel\31086.pdf</t>
+  </si>
+  <si>
+    <t>Dušan Harvanec</t>
+  </si>
+  <si>
+    <t>test_majitel\24495.pdf</t>
+  </si>
+  <si>
+    <t>Juraj Valach</t>
+  </si>
+  <si>
+    <t>statutar\73861.pdf</t>
+  </si>
+  <si>
+    <t>Ing. Bohumír Sumka, Ing. Emil Remšík, Ing. Peter Bernát, Ing. Ivan Bliska, Ing. Jozef Hulej, Ing. Mária Hyčková, Mgr. Eduard Kuchárik</t>
+  </si>
+  <si>
+    <t>test_majitel\4851.pdf</t>
+  </si>
+  <si>
+    <t>Martin Gall</t>
+  </si>
+  <si>
+    <t>test_majitel\15764.pdf</t>
+  </si>
+  <si>
+    <t>Miloš Šedík</t>
+  </si>
+  <si>
+    <t>test_majitel\29155.pdf</t>
+  </si>
+  <si>
+    <t>Jaroslav Novota</t>
+  </si>
+  <si>
+    <t>test_majitel\118547.pdf</t>
+  </si>
+  <si>
+    <t>Ing. Jaroslav Murgaš</t>
+  </si>
+  <si>
+    <t>test_majitel\6417.pdf</t>
+  </si>
+  <si>
+    <t>Mgr. Róbert Ujpál, Ing. Judita Ujpálová, Ing. Pavol Šimčišin</t>
+  </si>
+  <si>
+    <t>test_majitel\23283.pdf</t>
+  </si>
+  <si>
+    <t>Ivan Jarábek</t>
+  </si>
+  <si>
+    <t>test_majitel\25451.pdf</t>
+  </si>
+  <si>
+    <t>Ing. Mária Hlinová</t>
+  </si>
+  <si>
+    <t>test_majitel\14618.pdf</t>
+  </si>
+  <si>
+    <t>Július Smolko, Igor Smolko, Slavomír Petrišin</t>
+  </si>
+  <si>
+    <t>test_majitel\110434.pdf</t>
+  </si>
+  <si>
+    <t>Ing. Marta Hricová, Ing. Milan Varga</t>
+  </si>
+  <si>
+    <t>test_majitel\68042.pdf</t>
+  </si>
+  <si>
+    <t>MUDr. Miroslav Hruška, Elena Hrušková</t>
+  </si>
+  <si>
+    <t>test_majitel\67109.pdf</t>
+  </si>
+  <si>
+    <t>Ing. Miroslav Staňa</t>
+  </si>
+  <si>
+    <t>test_majitel\9307.pdf</t>
+  </si>
+  <si>
+    <t>36002330</t>
+  </si>
+  <si>
+    <t>Dipl. Ing. Dr. techn. Harald Meixner, Dr. Ing. Martin Kalafut</t>
+  </si>
+  <si>
+    <t>test_majitel\75158.pdf</t>
+  </si>
+  <si>
+    <t>Ladislav Ladič</t>
+  </si>
+  <si>
+    <t>statutar\112054</t>
+  </si>
+  <si>
+    <t>Ing. Ľubomír Gúčik</t>
+  </si>
+  <si>
+    <t>po 619</t>
   </si>
 </sst>
 </file>
@@ -600,15 +735,21 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -616,11 +757,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -647,12 +803,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
@@ -933,11 +1093,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G153"/>
+  <dimension ref="A1:K153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B133" sqref="B133"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -948,7 +1108,7 @@
     <col min="6" max="6" width="11" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -971,7 +1131,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -994,7 +1154,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -1018,7 +1178,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f t="shared" ref="A4:A50" si="0">A3+1</f>
         <v>3</v>
@@ -1042,7 +1202,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1065,8 +1225,11 @@
       <c r="G5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1090,7 +1253,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1114,7 +1277,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1138,7 +1301,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1162,7 +1325,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1186,7 +1349,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1210,7 +1373,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1234,7 +1397,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1258,7 +1421,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1282,7 +1445,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1306,7 +1469,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2171,15 +2334,15 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="16" t="s">
+      <c r="A52" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
@@ -2252,40 +2415,52 @@
         <v>93</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="13"/>
+      <c r="B56" s="16">
+        <v>530</v>
+      </c>
+      <c r="C56" s="16">
+        <v>196452</v>
+      </c>
       <c r="D56" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E56" s="14"/>
+      <c r="E56" s="12" t="s">
+        <v>194</v>
+      </c>
       <c r="F56" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B57" s="6"/>
-      <c r="C57" s="13"/>
+      <c r="B57" s="16">
+        <v>611</v>
+      </c>
+      <c r="C57" s="16">
+        <v>44299311</v>
+      </c>
       <c r="D57" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E57" s="14"/>
+      <c r="E57" s="17" t="s">
+        <v>223</v>
+      </c>
       <c r="F57" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>44</v>
+        <v>222</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
@@ -3099,15 +3274,15 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A103" s="16" t="s">
+      <c r="A103" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="B103" s="16"/>
-      <c r="C103" s="16"/>
-      <c r="D103" s="16"/>
-      <c r="E103" s="16"/>
-      <c r="F103" s="16"/>
-      <c r="G103" s="16"/>
+      <c r="B103" s="19"/>
+      <c r="C103" s="19"/>
+      <c r="D103" s="19"/>
+      <c r="E103" s="19"/>
+      <c r="F103" s="19"/>
+      <c r="G103" s="19"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="6">
@@ -3123,13 +3298,13 @@
         <v>5</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F104" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
@@ -3147,13 +3322,13 @@
         <v>5</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F105" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
@@ -3171,13 +3346,13 @@
         <v>5</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F106" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
@@ -3195,13 +3370,13 @@
         <v>5</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F107" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
@@ -3219,13 +3394,13 @@
         <v>5</v>
       </c>
       <c r="E108" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F108" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
@@ -3243,13 +3418,13 @@
         <v>5</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F109" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
@@ -3267,13 +3442,13 @@
         <v>5</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F110" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
@@ -3291,13 +3466,13 @@
         <v>5</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F111" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
@@ -3315,13 +3490,13 @@
         <v>5</v>
       </c>
       <c r="E112" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F112" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
@@ -3339,13 +3514,13 @@
         <v>5</v>
       </c>
       <c r="E113" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F113" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
@@ -3363,13 +3538,13 @@
         <v>5</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F114" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3377,23 +3552,23 @@
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="B115" s="17">
+      <c r="B115" s="16">
         <v>289</v>
       </c>
-      <c r="C115" s="17">
+      <c r="C115" s="16">
         <v>36499439</v>
       </c>
       <c r="D115" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E115" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F115" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3401,23 +3576,23 @@
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="B116" s="17">
+      <c r="B116" s="16">
         <v>295</v>
       </c>
-      <c r="C116" s="17">
+      <c r="C116" s="16">
         <v>35872926</v>
       </c>
       <c r="D116" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E116" s="18" t="s">
-        <v>145</v>
+      <c r="E116" s="17" t="s">
+        <v>144</v>
       </c>
       <c r="F116" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3425,23 +3600,23 @@
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="B117" s="17">
+      <c r="B117" s="16">
         <v>302</v>
       </c>
-      <c r="C117" s="17">
+      <c r="C117" s="16">
         <v>35791187</v>
       </c>
       <c r="D117" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E117" s="18" t="s">
-        <v>147</v>
+      <c r="E117" s="17" t="s">
+        <v>146</v>
       </c>
       <c r="F117" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3449,23 +3624,23 @@
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="B118" s="17">
+      <c r="B118" s="16">
         <v>307</v>
       </c>
-      <c r="C118" s="17">
+      <c r="C118" s="16">
         <v>31580220</v>
       </c>
       <c r="D118" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E118" s="18" t="s">
-        <v>149</v>
+      <c r="E118" s="17" t="s">
+        <v>148</v>
       </c>
       <c r="F118" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3473,23 +3648,23 @@
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="B119" s="17">
+      <c r="B119" s="16">
         <v>312</v>
       </c>
-      <c r="C119" s="17">
+      <c r="C119" s="16">
         <v>47360119</v>
       </c>
       <c r="D119" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E119" s="18" t="s">
-        <v>151</v>
+      <c r="E119" s="17" t="s">
+        <v>150</v>
       </c>
       <c r="F119" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3497,23 +3672,23 @@
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="B120" s="17">
+      <c r="B120" s="16">
         <v>316</v>
       </c>
-      <c r="C120" s="17">
+      <c r="C120" s="16">
         <v>36385492</v>
       </c>
       <c r="D120" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E120" s="19" t="s">
-        <v>153</v>
+      <c r="E120" s="18" t="s">
+        <v>152</v>
       </c>
       <c r="F120" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3521,23 +3696,23 @@
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="B121" s="17">
+      <c r="B121" s="16">
         <v>317</v>
       </c>
-      <c r="C121" s="17">
+      <c r="C121" s="16">
         <v>44803401</v>
       </c>
       <c r="D121" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E121" s="18" t="s">
-        <v>155</v>
+      <c r="E121" s="17" t="s">
+        <v>154</v>
       </c>
       <c r="F121" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3545,23 +3720,23 @@
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="B122" s="17">
+      <c r="B122" s="16">
         <v>332</v>
       </c>
-      <c r="C122" s="17">
+      <c r="C122" s="16">
         <v>48108791</v>
       </c>
       <c r="D122" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E122" s="18" t="s">
-        <v>157</v>
+      <c r="E122" s="17" t="s">
+        <v>156</v>
       </c>
       <c r="F122" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3569,23 +3744,23 @@
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="B123" s="17">
+      <c r="B123" s="16">
         <v>350</v>
       </c>
-      <c r="C123" s="17">
+      <c r="C123" s="16">
         <v>612758</v>
       </c>
       <c r="D123" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E123" s="18" t="s">
-        <v>159</v>
+      <c r="E123" s="17" t="s">
+        <v>158</v>
       </c>
       <c r="F123" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3593,23 +3768,23 @@
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="B124" s="17">
+      <c r="B124" s="16">
         <v>367</v>
       </c>
-      <c r="C124" s="17">
+      <c r="C124" s="16">
         <v>31444253</v>
       </c>
       <c r="D124" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E124" s="18" t="s">
-        <v>161</v>
+      <c r="E124" s="17" t="s">
+        <v>160</v>
       </c>
       <c r="F124" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3617,23 +3792,23 @@
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="B125" s="17">
+      <c r="B125" s="16">
         <v>368</v>
       </c>
-      <c r="C125" s="17">
+      <c r="C125" s="16">
         <v>31415261</v>
       </c>
       <c r="D125" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E125" s="18" t="s">
-        <v>163</v>
+      <c r="E125" s="17" t="s">
+        <v>162</v>
       </c>
       <c r="F125" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3641,23 +3816,23 @@
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="B126" s="17">
+      <c r="B126" s="16">
         <v>369</v>
       </c>
-      <c r="C126" s="17">
+      <c r="C126" s="16">
         <v>43818030</v>
       </c>
       <c r="D126" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E126" s="18" t="s">
-        <v>165</v>
+      <c r="E126" s="17" t="s">
+        <v>164</v>
       </c>
       <c r="F126" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3665,23 +3840,23 @@
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="B127" s="17">
+      <c r="B127" s="16">
         <v>373</v>
       </c>
-      <c r="C127" s="17">
+      <c r="C127" s="16">
         <v>36526606</v>
       </c>
       <c r="D127" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E127" s="18" t="s">
-        <v>167</v>
+      <c r="E127" s="17" t="s">
+        <v>166</v>
       </c>
       <c r="F127" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3689,23 +3864,23 @@
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="B128" s="17">
+      <c r="B128" s="16">
         <v>380</v>
       </c>
-      <c r="C128" s="17">
+      <c r="C128" s="16">
         <v>44295588</v>
       </c>
       <c r="D128" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E128" s="18" t="s">
-        <v>169</v>
+      <c r="E128" s="17" t="s">
+        <v>168</v>
       </c>
       <c r="F128" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3713,23 +3888,23 @@
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="B129" s="17">
+      <c r="B129" s="16">
         <v>382</v>
       </c>
-      <c r="C129" s="17">
+      <c r="C129" s="16">
         <v>36462110</v>
       </c>
       <c r="D129" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E129" s="18" t="s">
-        <v>171</v>
+      <c r="E129" s="17" t="s">
+        <v>170</v>
       </c>
       <c r="F129" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3737,23 +3912,23 @@
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="B130" s="17">
+      <c r="B130" s="16">
         <v>389</v>
       </c>
-      <c r="C130" s="17">
+      <c r="C130" s="16">
         <v>44966873</v>
       </c>
       <c r="D130" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E130" s="18" t="s">
-        <v>173</v>
+      <c r="E130" s="17" t="s">
+        <v>172</v>
       </c>
       <c r="F130" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3761,23 +3936,23 @@
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="B131" s="17">
+      <c r="B131" s="16">
         <v>390</v>
       </c>
-      <c r="C131" s="17">
+      <c r="C131" s="16">
         <v>691542</v>
       </c>
       <c r="D131" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E131" s="19" t="s">
-        <v>175</v>
+      <c r="E131" s="18" t="s">
+        <v>174</v>
       </c>
       <c r="F131" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3785,23 +3960,23 @@
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="B132" s="17">
+      <c r="B132" s="16">
         <v>452</v>
       </c>
-      <c r="C132" s="17">
+      <c r="C132" s="16">
         <v>31351611</v>
       </c>
       <c r="D132" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E132" s="18" t="s">
-        <v>177</v>
+      <c r="E132" s="17" t="s">
+        <v>176</v>
       </c>
       <c r="F132" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3809,383 +3984,503 @@
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="B133" s="17">
+      <c r="B133" s="16">
         <v>481</v>
       </c>
-      <c r="C133" s="17">
+      <c r="C133" s="16">
         <v>697591</v>
       </c>
       <c r="D133" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E133" s="18" t="s">
+      <c r="E133" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="F133" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G133" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="6">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="B134" s="16">
+        <v>482</v>
+      </c>
+      <c r="C134" s="16">
+        <v>30228042</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E134" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="F134" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G134" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="F133" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G133" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A134" s="6">
-        <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="B134" s="6"/>
-      <c r="C134" s="13"/>
-      <c r="D134" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E134" s="14"/>
-      <c r="F134" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G134" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="6">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="B135" s="6"/>
-      <c r="C135" s="13"/>
+      <c r="B135" s="16">
+        <v>501</v>
+      </c>
+      <c r="C135" s="16">
+        <v>36270806</v>
+      </c>
       <c r="D135" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E135" s="14"/>
+      <c r="E135" s="20" t="s">
+        <v>182</v>
+      </c>
       <c r="F135" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A136" s="6">
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="B136" s="6"/>
-      <c r="C136" s="13"/>
+      <c r="B136" s="16">
+        <v>506</v>
+      </c>
+      <c r="C136" s="16">
+        <v>31571778</v>
+      </c>
       <c r="D136" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E136" s="14"/>
+      <c r="E136" s="17" t="s">
+        <v>184</v>
+      </c>
       <c r="F136" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A137" s="6">
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="B137" s="6"/>
-      <c r="C137" s="13"/>
+      <c r="B137" s="16">
+        <v>510</v>
+      </c>
+      <c r="C137" s="16">
+        <v>35809078</v>
+      </c>
       <c r="D137" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E137" s="14"/>
+      <c r="E137" s="17" t="s">
+        <v>186</v>
+      </c>
       <c r="F137" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A138" s="6">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="B138" s="6"/>
-      <c r="C138" s="13"/>
+      <c r="B138" s="16">
+        <v>516</v>
+      </c>
+      <c r="C138" s="16">
+        <v>31641458</v>
+      </c>
       <c r="D138" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E138" s="14"/>
+      <c r="E138" s="21" t="s">
+        <v>188</v>
+      </c>
       <c r="F138" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A139" s="6">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="B139" s="6"/>
-      <c r="C139" s="13"/>
+      <c r="B139" s="16">
+        <v>519</v>
+      </c>
+      <c r="C139" s="16">
+        <v>693847</v>
+      </c>
       <c r="D139" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E139" s="14"/>
+      <c r="E139" s="17" t="s">
+        <v>190</v>
+      </c>
       <c r="F139" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A140" s="6">
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="B140" s="6"/>
-      <c r="C140" s="13"/>
+      <c r="B140" s="16">
+        <v>522</v>
+      </c>
+      <c r="C140" s="16">
+        <v>36224260</v>
+      </c>
       <c r="D140" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E140" s="14"/>
+      <c r="E140" s="17" t="s">
+        <v>192</v>
+      </c>
       <c r="F140" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A141" s="6">
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
-      <c r="B141" s="6"/>
-      <c r="C141" s="13"/>
+      <c r="B141" s="16">
+        <v>542</v>
+      </c>
+      <c r="C141" s="16">
+        <v>41751477</v>
+      </c>
       <c r="D141" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E141" s="14"/>
+      <c r="E141" s="17" t="s">
+        <v>196</v>
+      </c>
       <c r="F141" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A142" s="6">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="B142" s="6"/>
-      <c r="C142" s="13"/>
+      <c r="B142" s="16">
+        <v>544</v>
+      </c>
+      <c r="C142" s="16">
+        <v>36550302</v>
+      </c>
       <c r="D142" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E142" s="14"/>
+      <c r="E142" s="17" t="s">
+        <v>198</v>
+      </c>
       <c r="F142" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G142" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A143" s="6">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="B143" s="6"/>
-      <c r="C143" s="13"/>
+      <c r="B143" s="16">
+        <v>545</v>
+      </c>
+      <c r="C143" s="16">
+        <v>36534668</v>
+      </c>
       <c r="D143" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E143" s="14"/>
+      <c r="E143" s="17" t="s">
+        <v>200</v>
+      </c>
       <c r="F143" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G143" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A144" s="6">
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="B144" s="6"/>
-      <c r="C144" s="13"/>
+      <c r="B144" s="16">
+        <v>550</v>
+      </c>
+      <c r="C144" s="16">
+        <v>43883907</v>
+      </c>
       <c r="D144" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E144" s="14"/>
+      <c r="E144" s="17" t="s">
+        <v>202</v>
+      </c>
       <c r="F144" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G144" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A145" s="6">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="B145" s="6"/>
-      <c r="C145" s="13"/>
+      <c r="B145" s="16">
+        <v>552</v>
+      </c>
+      <c r="C145" s="16">
+        <v>44325851</v>
+      </c>
       <c r="D145" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E145" s="14"/>
+      <c r="E145" s="18" t="s">
+        <v>204</v>
+      </c>
       <c r="F145" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G145" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A146" s="6">
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="B146" s="6"/>
-      <c r="C146" s="13"/>
+      <c r="B146" s="16">
+        <v>558</v>
+      </c>
+      <c r="C146" s="16">
+        <v>46940553</v>
+      </c>
       <c r="D146" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E146" s="14"/>
+      <c r="E146" s="17" t="s">
+        <v>206</v>
+      </c>
       <c r="F146" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G146" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A147" s="6">
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
-      <c r="B147" s="6"/>
-      <c r="C147" s="13"/>
+      <c r="B147" s="16">
+        <v>565</v>
+      </c>
+      <c r="C147" s="16">
+        <v>45354618</v>
+      </c>
       <c r="D147" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E147" s="14"/>
+      <c r="E147" s="17" t="s">
+        <v>208</v>
+      </c>
       <c r="F147" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G147" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A148" s="6">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="B148" s="6"/>
-      <c r="C148" s="13"/>
+      <c r="B148" s="16">
+        <v>571</v>
+      </c>
+      <c r="C148" s="16">
+        <v>36501921</v>
+      </c>
       <c r="D148" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E148" s="14"/>
+      <c r="E148" s="18" t="s">
+        <v>210</v>
+      </c>
       <c r="F148" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A149" s="6">
         <f t="shared" si="3"/>
         <v>46</v>
       </c>
-      <c r="B149" s="6"/>
-      <c r="C149" s="13"/>
+      <c r="B149" s="16">
+        <v>573</v>
+      </c>
+      <c r="C149" s="16">
+        <v>45304726</v>
+      </c>
       <c r="D149" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E149" s="14"/>
+      <c r="E149" s="18" t="s">
+        <v>212</v>
+      </c>
       <c r="F149" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A150" s="6">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="B150" s="6"/>
-      <c r="C150" s="13"/>
+      <c r="B150" s="16">
+        <v>577</v>
+      </c>
+      <c r="C150" s="16">
+        <v>31640265</v>
+      </c>
       <c r="D150" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E150" s="14"/>
+      <c r="E150" s="18" t="s">
+        <v>214</v>
+      </c>
       <c r="F150" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G150" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A151" s="6">
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
-      <c r="B151" s="6"/>
-      <c r="C151" s="13"/>
+      <c r="B151" s="16">
+        <v>583</v>
+      </c>
+      <c r="C151" s="16">
+        <v>36671134</v>
+      </c>
       <c r="D151" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E151" s="14"/>
+      <c r="E151" s="17" t="s">
+        <v>216</v>
+      </c>
       <c r="F151" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G151" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A152" s="6">
         <f t="shared" si="3"/>
         <v>49</v>
       </c>
-      <c r="B152" s="6"/>
-      <c r="C152" s="13"/>
+      <c r="B152" s="16">
+        <v>588</v>
+      </c>
+      <c r="C152" s="13" t="s">
+        <v>218</v>
+      </c>
       <c r="D152" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E152" s="14"/>
+      <c r="E152" s="18" t="s">
+        <v>219</v>
+      </c>
       <c r="F152" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G152" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A153" s="6">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="B153" s="6"/>
-      <c r="C153" s="13"/>
+      <c r="B153" s="16">
+        <v>593</v>
+      </c>
+      <c r="C153" s="16">
+        <v>31408451</v>
+      </c>
       <c r="D153" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E153" s="14"/>
+      <c r="E153" s="17" t="s">
+        <v>221</v>
+      </c>
       <c r="F153" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G153" s="6" t="s">
-        <v>119</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/Dataset/list.xlsx
+++ b/Dataset/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FMFI\1. semester\Bakalárka\na_git\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6688ACCC-992E-411D-B69F-ABD963F1D41D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99D1FED-5618-4387-B06B-0CB47114F083}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="238">
   <si>
     <t>Číslo vložky</t>
   </si>
@@ -699,7 +699,46 @@
     <t>Ing. Ľubomír Gúčik</t>
   </si>
   <si>
-    <t>po 619</t>
+    <t>Platní, no bez overani:</t>
+  </si>
+  <si>
+    <t>https://rpvs.gov.sk/rpvs/Partner/Partner/Detail/646</t>
+  </si>
+  <si>
+    <t>statutar\26989.pdf</t>
+  </si>
+  <si>
+    <t>Ing. Pavel Bízek, Ing. Milan Konôpka</t>
+  </si>
+  <si>
+    <t>statutar\93052.pdf</t>
+  </si>
+  <si>
+    <t>Mgr. Anton Behan, Ing. Adrián Csuba</t>
+  </si>
+  <si>
+    <t>46529233</t>
+  </si>
+  <si>
+    <t>statutar\115604.pdf</t>
+  </si>
+  <si>
+    <t>Ing. Janka Olejová</t>
+  </si>
+  <si>
+    <t>statutar\103005.pdf</t>
+  </si>
+  <si>
+    <t>prof. Ing Miroslav Fikar DrSc.</t>
+  </si>
+  <si>
+    <t>statutar\118476.pdf</t>
+  </si>
+  <si>
+    <t>Sun Yong Hwang</t>
+  </si>
+  <si>
+    <t>po 959</t>
   </si>
 </sst>
 </file>
@@ -806,13 +845,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
@@ -1093,11 +1132,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K153"/>
+  <dimension ref="A1:P153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K60" sqref="K60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1108,7 +1147,7 @@
     <col min="6" max="6" width="11" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -1131,7 +1170,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1154,7 +1193,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -1178,7 +1217,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f t="shared" ref="A4:A50" si="0">A3+1</f>
         <v>3</v>
@@ -1202,7 +1241,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1225,11 +1264,8 @@
       <c r="G5" t="s">
         <v>16</v>
       </c>
-      <c r="K5" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1253,7 +1289,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1277,7 +1313,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1300,8 +1336,11 @@
       <c r="G8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="P8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1324,8 +1363,11 @@
       <c r="G9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="P9" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1349,7 +1391,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1373,7 +1415,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1397,7 +1439,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1421,7 +1463,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1445,7 +1487,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1469,7 +1511,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2261,7 +2303,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2285,7 +2327,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2309,7 +2351,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <f>A50+1</f>
         <v>50</v>
@@ -2333,18 +2375,18 @@
         <v>115</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="19" t="s">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>1</v>
       </c>
@@ -2367,7 +2409,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <f t="shared" ref="A54:A68" si="1">A53+1</f>
         <v>2</v>
@@ -2391,7 +2433,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -2415,7 +2457,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -2439,7 +2481,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -2463,97 +2505,130 @@
         <v>222</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B58" s="6"/>
-      <c r="C58" s="13"/>
+      <c r="B58" s="16">
+        <v>710</v>
+      </c>
+      <c r="C58" s="16">
+        <v>31399614</v>
+      </c>
       <c r="D58" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E58" s="14"/>
+      <c r="E58" s="12" t="s">
+        <v>227</v>
+      </c>
       <c r="F58" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B59" s="6"/>
-      <c r="C59" s="13"/>
+      <c r="B59" s="16">
+        <v>683</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>230</v>
+      </c>
       <c r="D59" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E59" s="14"/>
+      <c r="E59" s="12" t="s">
+        <v>229</v>
+      </c>
       <c r="F59" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+      <c r="K59" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B60" s="6"/>
-      <c r="C60" s="13"/>
+      <c r="B60" s="16">
+        <v>814</v>
+      </c>
+      <c r="C60" s="16">
+        <v>165506</v>
+      </c>
       <c r="D60" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E60" s="14"/>
+      <c r="E60" s="17" t="s">
+        <v>232</v>
+      </c>
       <c r="F60" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B61" s="6"/>
-      <c r="C61" s="13"/>
+      <c r="B61" s="16">
+        <v>830</v>
+      </c>
+      <c r="C61" s="16">
+        <v>397687</v>
+      </c>
       <c r="D61" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E61" s="14"/>
+      <c r="E61" s="17" t="s">
+        <v>234</v>
+      </c>
       <c r="F61" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B62" s="6"/>
-      <c r="C62" s="13"/>
+      <c r="B62" s="16">
+        <v>949</v>
+      </c>
+      <c r="C62" s="16">
+        <v>28399757</v>
+      </c>
       <c r="D62" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E62" s="14"/>
+      <c r="E62" s="17" t="s">
+        <v>236</v>
+      </c>
       <c r="F62" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -2571,7 +2646,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -3274,15 +3349,15 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A103" s="19" t="s">
+      <c r="A103" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="B103" s="19"/>
-      <c r="C103" s="19"/>
-      <c r="D103" s="19"/>
-      <c r="E103" s="19"/>
-      <c r="F103" s="19"/>
-      <c r="G103" s="19"/>
+      <c r="B103" s="21"/>
+      <c r="C103" s="21"/>
+      <c r="D103" s="21"/>
+      <c r="E103" s="21"/>
+      <c r="F103" s="21"/>
+      <c r="G103" s="21"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="6">
@@ -4041,7 +4116,7 @@
       <c r="D135" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E135" s="20" t="s">
+      <c r="E135" s="19" t="s">
         <v>182</v>
       </c>
       <c r="F135" s="7" t="s">
@@ -4113,7 +4188,7 @@
       <c r="D138" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E138" s="21" t="s">
+      <c r="E138" s="20" t="s">
         <v>188</v>
       </c>
       <c r="F138" s="7" t="s">

--- a/Dataset/list.xlsx
+++ b/Dataset/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FMFI\1. semester\Bakalárka\na_git\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99D1FED-5618-4387-B06B-0CB47114F083}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54E3835-B933-4FC7-B3F2-EBD763657F9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="248">
   <si>
     <t>Číslo vložky</t>
   </si>
@@ -738,7 +738,37 @@
     <t>Sun Yong Hwang</t>
   </si>
   <si>
-    <t>po 959</t>
+    <t>statutar\119662.pdf</t>
+  </si>
+  <si>
+    <t>Ing. Jozef Pojedinec, Matej Hambálek, JUDr. Peter Csicsay LL.M.</t>
+  </si>
+  <si>
+    <t>statutar\71061.pdf</t>
+  </si>
+  <si>
+    <t>Zuzana Sordel</t>
+  </si>
+  <si>
+    <t>https://rpvs.gov.sk/rpvs/Partner/Partner/Detail/1190</t>
+  </si>
+  <si>
+    <t>statutar\101758.pdf</t>
+  </si>
+  <si>
+    <t>FN 58498 b</t>
+  </si>
+  <si>
+    <t>Robert Kaubek, Jiro Takashima</t>
+  </si>
+  <si>
+    <t>statutar\109070.pdf</t>
+  </si>
+  <si>
+    <t>Paul Michael Ladner, Marie-Dominique Cécile Laurens ép. Ortiz, Arnaud Dominique Saincry</t>
+  </si>
+  <si>
+    <t>po 1429</t>
   </si>
 </sst>
 </file>
@@ -815,7 +845,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -851,6 +881,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1135,7 +1168,7 @@
   <dimension ref="A1:P153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K60" sqref="K60"/>
     </sheetView>
   </sheetViews>
@@ -1390,6 +1423,9 @@
       <c r="G10" t="s">
         <v>25</v>
       </c>
+      <c r="P10" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -2553,7 +2589,7 @@
         <v>228</v>
       </c>
       <c r="K59" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -2628,76 +2664,100 @@
         <v>235</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B63" s="6"/>
-      <c r="C63" s="13"/>
+      <c r="B63" s="16">
+        <v>1037</v>
+      </c>
+      <c r="C63" s="16">
+        <v>35884916</v>
+      </c>
       <c r="D63" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E63" s="14"/>
+      <c r="E63" s="18" t="s">
+        <v>238</v>
+      </c>
       <c r="F63" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B64" s="6"/>
-      <c r="C64" s="13"/>
+      <c r="B64" s="16">
+        <v>1084</v>
+      </c>
+      <c r="C64" s="16">
+        <v>46540873</v>
+      </c>
       <c r="D64" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E64" s="14"/>
+      <c r="E64" s="17" t="s">
+        <v>240</v>
+      </c>
       <c r="F64" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B65" s="6"/>
-      <c r="C65" s="13"/>
+      <c r="B65" s="16">
+        <v>1240</v>
+      </c>
+      <c r="C65" s="22" t="s">
+        <v>243</v>
+      </c>
       <c r="D65" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E65" s="14"/>
+      <c r="E65" s="17" t="s">
+        <v>244</v>
+      </c>
       <c r="F65" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B66" s="6"/>
-      <c r="C66" s="13"/>
+      <c r="B66" s="16">
+        <v>1404</v>
+      </c>
+      <c r="C66" s="16">
+        <v>34116940</v>
+      </c>
       <c r="D66" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E66" s="14"/>
+      <c r="E66" s="18" t="s">
+        <v>246</v>
+      </c>
       <c r="F66" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>44</v>
+        <v>245</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">

--- a/Dataset/list.xlsx
+++ b/Dataset/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FMFI\1. semester\Bakalárka\na_git\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54E3835-B933-4FC7-B3F2-EBD763657F9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C209E2-8A9F-4370-A8C6-6E9711D93423}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="256">
   <si>
     <t>Číslo vložky</t>
   </si>
@@ -768,7 +768,31 @@
     <t>Paul Michael Ladner, Marie-Dominique Cécile Laurens ép. Ortiz, Arnaud Dominique Saincry</t>
   </si>
   <si>
-    <t>po 1429</t>
+    <t>statutar\31778.pdf</t>
+  </si>
+  <si>
+    <t>Ing. Timotej Husár CSc., Jozef Halveland, Timotej Husár, Ing. Andrej Husár, Mária Lašáková, Patrícia Husárová, Andrea Križanová, Henrieta Mikulová, Jozef Halveland</t>
+  </si>
+  <si>
+    <t>111023.pdf</t>
+  </si>
+  <si>
+    <t>Ing. Roman Šustek, Ing. Tomáš Černický, Ing. Ivan Bednár</t>
+  </si>
+  <si>
+    <t>statutar\104137.pdf</t>
+  </si>
+  <si>
+    <t>Jozef Nagy</t>
+  </si>
+  <si>
+    <t>statutar\117898.pdf</t>
+  </si>
+  <si>
+    <t>Josep Oriol Carreras, Mario Grega</t>
+  </si>
+  <si>
+    <t>po 1671</t>
   </si>
 </sst>
 </file>
@@ -879,11 +903,11 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2412,15 +2436,15 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="21" t="s">
+      <c r="A52" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
@@ -2589,7 +2613,7 @@
         <v>228</v>
       </c>
       <c r="K59" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -2720,7 +2744,7 @@
       <c r="B65" s="16">
         <v>1240</v>
       </c>
-      <c r="C65" s="22" t="s">
+      <c r="C65" s="21" t="s">
         <v>243</v>
       </c>
       <c r="D65" s="6" t="s">
@@ -2760,76 +2784,100 @@
         <v>245</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B67" s="6"/>
-      <c r="C67" s="13"/>
+      <c r="B67" s="16">
+        <v>1552</v>
+      </c>
+      <c r="C67" s="16">
+        <v>31409890</v>
+      </c>
       <c r="D67" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E67" s="14"/>
+      <c r="E67" s="18" t="s">
+        <v>248</v>
+      </c>
       <c r="F67" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B68" s="6"/>
-      <c r="C68" s="13"/>
+      <c r="B68" s="16">
+        <v>1634</v>
+      </c>
+      <c r="C68" s="16">
+        <v>31411851</v>
+      </c>
       <c r="D68" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E68" s="14"/>
+      <c r="E68" s="18" t="s">
+        <v>250</v>
+      </c>
       <c r="F68" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
         <f t="shared" ref="A69:A101" si="2">A68+1</f>
         <v>17</v>
       </c>
-      <c r="B69" s="6"/>
-      <c r="C69" s="13"/>
+      <c r="B69" s="16">
+        <v>1656</v>
+      </c>
+      <c r="C69" s="16">
+        <v>36228290</v>
+      </c>
       <c r="D69" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E69" s="14"/>
+      <c r="E69" s="17" t="s">
+        <v>252</v>
+      </c>
       <c r="F69" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="B70" s="6"/>
-      <c r="C70" s="13"/>
+      <c r="B70" s="16">
+        <v>1671</v>
+      </c>
+      <c r="C70" s="16">
+        <v>28968506</v>
+      </c>
       <c r="D70" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E70" s="14"/>
+      <c r="E70" s="18" t="s">
+        <v>254</v>
+      </c>
       <c r="F70" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>44</v>
+        <v>253</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
@@ -3409,15 +3457,15 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A103" s="21" t="s">
+      <c r="A103" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="B103" s="21"/>
-      <c r="C103" s="21"/>
-      <c r="D103" s="21"/>
-      <c r="E103" s="21"/>
-      <c r="F103" s="21"/>
-      <c r="G103" s="21"/>
+      <c r="B103" s="22"/>
+      <c r="C103" s="22"/>
+      <c r="D103" s="22"/>
+      <c r="E103" s="22"/>
+      <c r="F103" s="22"/>
+      <c r="G103" s="22"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="6">

--- a/Dataset/list.xlsx
+++ b/Dataset/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FMFI\1. semester\Bakalárka\na_git\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C209E2-8A9F-4370-A8C6-6E9711D93423}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9270C7-AB32-4D90-B082-6DADB1E83E6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="280">
   <si>
     <t>Číslo vložky</t>
   </si>
@@ -768,15 +768,6 @@
     <t>Paul Michael Ladner, Marie-Dominique Cécile Laurens ép. Ortiz, Arnaud Dominique Saincry</t>
   </si>
   <si>
-    <t>statutar\31778.pdf</t>
-  </si>
-  <si>
-    <t>Ing. Timotej Husár CSc., Jozef Halveland, Timotej Husár, Ing. Andrej Husár, Mária Lašáková, Patrícia Husárová, Andrea Križanová, Henrieta Mikulová, Jozef Halveland</t>
-  </si>
-  <si>
-    <t>111023.pdf</t>
-  </si>
-  <si>
     <t>Ing. Roman Šustek, Ing. Tomáš Černický, Ing. Ivan Bednár</t>
   </si>
   <si>
@@ -792,7 +783,88 @@
     <t>Josep Oriol Carreras, Mario Grega</t>
   </si>
   <si>
-    <t>po 1671</t>
+    <t>statutar\111023.pdf</t>
+  </si>
+  <si>
+    <t>statutar\91824.pdf</t>
+  </si>
+  <si>
+    <t>Ing. Soňa Červená, Ing., Mgr. Miloš Valovič, Benedikt Lavrinčík</t>
+  </si>
+  <si>
+    <t>statutar\80085.pdf</t>
+  </si>
+  <si>
+    <t>Ing. Ľuboš Kertész, Ing. Peter Dobrý</t>
+  </si>
+  <si>
+    <t>statutar\84503.pdf</t>
+  </si>
+  <si>
+    <t>Ing. Peter Dobrý, Benedikt Lavrinčík</t>
+  </si>
+  <si>
+    <t>statutar\104293.pdf</t>
+  </si>
+  <si>
+    <t>statutar\84617.pdf</t>
+  </si>
+  <si>
+    <t>Benedikt Lavrinčík, Ing. Jaroslav Mališ, Ing. Ľuboš Kertész</t>
+  </si>
+  <si>
+    <t>statutar\116218.pdf</t>
+  </si>
+  <si>
+    <t>JUDr. Tomáš Abel PhD., Ing. Peter Dobrý, Benedikt Lavrinčík</t>
+  </si>
+  <si>
+    <t>statutar\90388.pdf</t>
+  </si>
+  <si>
+    <t>Ing., Mgr. Miloš Valovič,  Ing. Dušan Badinský, Benedikt Lavrinčík</t>
+  </si>
+  <si>
+    <t>statutar\104478.pdf</t>
+  </si>
+  <si>
+    <t>Ing. Peter Dobrý, MUDr. Juraj Pelč, MUDr. Rudolf Slivka, Benedikt Lavrinčík, Dagmar Šušková</t>
+  </si>
+  <si>
+    <t>statutar\60761.pdf</t>
+  </si>
+  <si>
+    <t>Štatutári - test</t>
+  </si>
+  <si>
+    <t>test_statutar\</t>
+  </si>
+  <si>
+    <t>test_statutar\104786.pdf</t>
+  </si>
+  <si>
+    <t>Ing. Peter Dobrý, Ing., Mgr. Miloš Valovič, Benedikt Lavrinčík</t>
+  </si>
+  <si>
+    <t>statutar\78095.pdf</t>
+  </si>
+  <si>
+    <t>Renáta Harčárová, Mária Grigerová, Ing. Vladislav Kvaska, Mgr. Eugénia Korbová</t>
+  </si>
+  <si>
+    <t>statutar\93882.pdf</t>
+  </si>
+  <si>
+    <t>prof. Ing. Zuzana Sternová PhD.</t>
+  </si>
+  <si>
+    <t>statutar\117380.pdf</t>
+  </si>
+  <si>
+    <t>Andreas Jozef Brun, Teemu Tapani Airaksinen</t>
+  </si>
+  <si>
+    <t>po 1829</t>
   </si>
 </sst>
 </file>
@@ -869,7 +941,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -909,6 +981,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
@@ -1189,11 +1262,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P153"/>
+  <dimension ref="A1:P204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K60" sqref="K60"/>
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N80" sqref="N80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2363,7 +2436,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2387,7 +2460,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2411,7 +2484,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <f>A50+1</f>
         <v>50</v>
@@ -2435,7 +2508,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="22" t="s">
         <v>117</v>
       </c>
@@ -2446,7 +2519,7 @@
       <c r="F52" s="22"/>
       <c r="G52" s="22"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>1</v>
       </c>
@@ -2469,7 +2542,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <f t="shared" ref="A54:A68" si="1">A53+1</f>
         <v>2</v>
@@ -2493,7 +2566,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -2517,7 +2590,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -2541,7 +2614,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -2565,7 +2638,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -2589,7 +2662,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -2612,11 +2685,8 @@
       <c r="G59" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="K59" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -2640,7 +2710,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -2664,7 +2734,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -2688,7 +2758,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -2712,7 +2782,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -2736,7 +2806,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -2760,7 +2830,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -2784,31 +2854,31 @@
         <v>245</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B67" s="16">
-        <v>1552</v>
+        <v>1690</v>
       </c>
       <c r="C67" s="16">
-        <v>31409890</v>
+        <v>35802871</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E67" s="18" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -2823,16 +2893,16 @@
         <v>5</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F68" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
         <f t="shared" ref="A69:A101" si="2">A68+1</f>
         <v>17</v>
@@ -2847,16 +2917,16 @@
         <v>5</v>
       </c>
       <c r="E69" s="17" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -2871,211 +2941,280 @@
         <v>5</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F70" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="B71" s="6"/>
-      <c r="C71" s="13"/>
+      <c r="B71" s="16">
+        <v>1691</v>
+      </c>
+      <c r="C71" s="16">
+        <v>36179345</v>
+      </c>
       <c r="D71" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E71" s="14"/>
+      <c r="E71" s="18" t="s">
+        <v>256</v>
+      </c>
       <c r="F71" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="B72" s="6"/>
-      <c r="C72" s="13"/>
+      <c r="B72" s="16">
+        <v>1693</v>
+      </c>
+      <c r="C72" s="16">
+        <v>31365787</v>
+      </c>
       <c r="D72" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E72" s="14"/>
+      <c r="E72" s="18" t="s">
+        <v>258</v>
+      </c>
       <c r="F72" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A73" s="6">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="B73" s="6"/>
-      <c r="C73" s="13"/>
+      <c r="B73" s="16">
+        <v>1694</v>
+      </c>
+      <c r="C73" s="16">
+        <v>46782532</v>
+      </c>
       <c r="D73" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E73" s="14"/>
+      <c r="E73" s="17" t="s">
+        <v>256</v>
+      </c>
       <c r="F73" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="B74" s="6"/>
-      <c r="C74" s="13"/>
+      <c r="B74" s="16">
+        <v>1695</v>
+      </c>
+      <c r="C74" s="16">
+        <v>44069472</v>
+      </c>
       <c r="D74" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E74" s="14"/>
+      <c r="E74" s="18" t="s">
+        <v>261</v>
+      </c>
       <c r="F74" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="B75" s="6"/>
-      <c r="C75" s="13"/>
+      <c r="B75" s="16">
+        <v>1696</v>
+      </c>
+      <c r="C75" s="16">
+        <v>36622516</v>
+      </c>
       <c r="D75" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E75" s="14"/>
+      <c r="E75" s="17" t="s">
+        <v>263</v>
+      </c>
       <c r="F75" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A76" s="6">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="B76" s="6"/>
-      <c r="C76" s="13"/>
+      <c r="B76" s="16">
+        <v>1697</v>
+      </c>
+      <c r="C76" s="16">
+        <v>35747404</v>
+      </c>
       <c r="D76" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E76" s="14"/>
+      <c r="E76" s="18" t="s">
+        <v>265</v>
+      </c>
       <c r="F76" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A77" s="6">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="B77" s="6"/>
-      <c r="C77" s="13"/>
+      <c r="B77" s="16">
+        <v>1699</v>
+      </c>
+      <c r="C77" s="16">
+        <v>36629359</v>
+      </c>
       <c r="D77" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E77" s="14"/>
+      <c r="E77" s="18" t="s">
+        <v>267</v>
+      </c>
       <c r="F77" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A78" s="6">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="B78" s="6"/>
-      <c r="C78" s="13"/>
+      <c r="B78" s="16">
+        <v>1701</v>
+      </c>
+      <c r="C78" s="16">
+        <v>35713640</v>
+      </c>
       <c r="D78" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E78" s="14"/>
+      <c r="E78" s="18" t="s">
+        <v>256</v>
+      </c>
       <c r="F78" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+      <c r="K78" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A79" s="6">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="B79" s="6"/>
-      <c r="C79" s="13"/>
+      <c r="B79" s="16">
+        <v>1764</v>
+      </c>
+      <c r="C79" s="16">
+        <v>45747776</v>
+      </c>
       <c r="D79" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E79" s="14"/>
+      <c r="E79" s="18" t="s">
+        <v>274</v>
+      </c>
       <c r="F79" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A80" s="6">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="B80" s="6"/>
-      <c r="C80" s="13"/>
+      <c r="B80" s="16">
+        <v>1769</v>
+      </c>
+      <c r="C80" s="16">
+        <v>31821987</v>
+      </c>
       <c r="D80" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E80" s="14"/>
+      <c r="E80" s="17" t="s">
+        <v>276</v>
+      </c>
       <c r="F80" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A81" s="6">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="B81" s="6"/>
-      <c r="C81" s="13"/>
+      <c r="B81" s="16">
+        <v>1829</v>
+      </c>
+      <c r="C81" s="16">
+        <v>26688093</v>
+      </c>
       <c r="D81" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E81" s="14"/>
+      <c r="E81" s="18" t="s">
+        <v>278</v>
+      </c>
       <c r="F81" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>44</v>
+        <v>277</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
@@ -4666,10 +4805,780 @@
         <v>220</v>
       </c>
     </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A154" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="B154" s="22"/>
+      <c r="C154" s="22"/>
+      <c r="D154" s="22"/>
+      <c r="E154" s="22"/>
+      <c r="F154" s="22"/>
+      <c r="G154" s="22"/>
+    </row>
+    <row r="155" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A155" s="6">
+        <v>1</v>
+      </c>
+      <c r="B155" s="16">
+        <v>1703</v>
+      </c>
+      <c r="C155" s="16">
+        <v>35908700</v>
+      </c>
+      <c r="D155" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E155" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G155" s="23" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <f>A155+1</f>
+        <v>2</v>
+      </c>
+      <c r="D156" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G156" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <f t="shared" ref="A157:A209" si="4">A156+1</f>
+        <v>3</v>
+      </c>
+      <c r="D157" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G157" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="D158" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G158" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="D159" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G159" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="D160" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G160" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="D161" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G161" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="D162" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G162" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="D163" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G163" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="D164" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G164" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="D165" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G165" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="D166" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G166" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="D167" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G167" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="D168" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G168" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="D169" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G169" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="D170" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G170" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="D171" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G171" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="D172" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G172" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="D173" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G173" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="D174" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G174" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="D175" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G175" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="D176" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G176" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="D177" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G177" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="D178" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G178" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="D179" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G179" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="D180" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G180" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="D181" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G181" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="D182" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G182" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="D183" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G183" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="D184" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G184" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="D185" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G185" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="D186" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G186" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+      <c r="D187" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G187" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <f>A187+1</f>
+        <v>34</v>
+      </c>
+      <c r="D188" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G188" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="D189" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G189" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="D190" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G190" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <f t="shared" si="4"/>
+        <v>37</v>
+      </c>
+      <c r="D191" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G191" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="D192" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G192" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="D193" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G193" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="D194" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G194" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="D195" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G195" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="D196" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G196" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
+      <c r="D197" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G197" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+      <c r="D198" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G198" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="D199" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G199" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <f t="shared" si="4"/>
+        <v>46</v>
+      </c>
+      <c r="D200" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G200" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <f t="shared" si="4"/>
+        <v>47</v>
+      </c>
+      <c r="D201" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G201" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="D202" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G202" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="D203" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G203" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="D204" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G204" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A52:G52"/>
     <mergeCell ref="A103:G103"/>
+    <mergeCell ref="A154:G154"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Dataset/list.xlsx
+++ b/Dataset/list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FMFI\1. semester\Bakalárka\na_git\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9270C7-AB32-4D90-B082-6DADB1E83E6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA31AFBB-3AB1-44AB-B6C5-DA7BC25852E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4596" yWindow="0" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hárok1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="293">
   <si>
     <t>Číslo vložky</t>
   </si>
@@ -864,7 +864,46 @@
     <t>Andreas Jozef Brun, Teemu Tapani Airaksinen</t>
   </si>
   <si>
-    <t>po 1829</t>
+    <t>statutar\107830.pdf</t>
+  </si>
+  <si>
+    <t>Helena Maria Stjernholm, Erik A Elzvik, Jon Fredrick Baksaas, Jan Ove Mikael Carlson, Bo Kjell-Ȁke Soting, Inge Roger Svensson, Jacob Wallenberg, Erik Börje Ekholm, Nora Denzel, Kristin Sue Rinne, Carl Fredrik Harry Jejdling, Kurt Åke Jofs, Lars Erik Torbjörn Nyman, Ronnie Frans Ghislain Leten</t>
+  </si>
+  <si>
+    <t>statutar\22455.pdf</t>
+  </si>
+  <si>
+    <t>Ing. Nikola Hlůžová MBA, Mgr. Marián Strážovský</t>
+  </si>
+  <si>
+    <t>statutar\114845.pdf</t>
+  </si>
+  <si>
+    <t>RNDr. Martin Ružinský PhD., Ing. Ján Horkovič, Ing. Milan Rác MBA, Ing. Marián Lokša, Ing. Peter Zelinka, Ing. Peter Ufnár, Ing. Katarína Vršanská, Ing. Ivan Bilohuščin</t>
+  </si>
+  <si>
+    <t>statutar\30031.pdf</t>
+  </si>
+  <si>
+    <t>ThDr. Štefan Sečka PhD.</t>
+  </si>
+  <si>
+    <t>statutar\98669.pdf</t>
+  </si>
+  <si>
+    <t>FN 91142 h</t>
+  </si>
+  <si>
+    <t>Ing. Thomas Lackner, Günther Weiß</t>
+  </si>
+  <si>
+    <t>statutar\113268.pdf</t>
+  </si>
+  <si>
+    <t>Jan Knyttl, Ing. Tomáš Belavý</t>
+  </si>
+  <si>
+    <t>po 2303</t>
   </si>
 </sst>
 </file>
@@ -978,10 +1017,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
@@ -1265,8 +1304,8 @@
   <dimension ref="A1:P204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N80" sqref="N80"/>
+      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O90" sqref="O90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2509,15 +2548,15 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="22" t="s">
+      <c r="A52" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
@@ -3142,7 +3181,7 @@
         <v>268</v>
       </c>
       <c r="K78" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3217,112 +3256,148 @@
         <v>277</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A82" s="6">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="B82" s="6"/>
-      <c r="C82" s="13"/>
+      <c r="B82" s="16">
+        <v>1945</v>
+      </c>
+      <c r="C82" s="16">
+        <v>31344046</v>
+      </c>
       <c r="D82" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E82" s="14"/>
+      <c r="E82" s="18" t="s">
+        <v>280</v>
+      </c>
       <c r="F82" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A83" s="6">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="B83" s="6"/>
-      <c r="C83" s="13"/>
+      <c r="B83" s="16">
+        <v>2019</v>
+      </c>
+      <c r="C83" s="16">
+        <v>46095969</v>
+      </c>
       <c r="D83" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E83" s="14"/>
+      <c r="E83" s="18" t="s">
+        <v>282</v>
+      </c>
       <c r="F83" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A84" s="6">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="B84" s="6"/>
-      <c r="C84" s="13"/>
+      <c r="B84" s="16">
+        <v>2056</v>
+      </c>
+      <c r="C84" s="16">
+        <v>47400781</v>
+      </c>
       <c r="D84" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E84" s="14"/>
+      <c r="E84" s="18" t="s">
+        <v>284</v>
+      </c>
       <c r="F84" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A85" s="6">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="B85" s="6"/>
-      <c r="C85" s="13"/>
+      <c r="B85" s="16">
+        <v>2136</v>
+      </c>
+      <c r="C85" s="16">
+        <v>35514221</v>
+      </c>
       <c r="D85" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E85" s="14"/>
+      <c r="E85" s="17" t="s">
+        <v>286</v>
+      </c>
       <c r="F85" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A86" s="6">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="B86" s="6"/>
-      <c r="C86" s="13"/>
+      <c r="B86" s="16">
+        <v>2210</v>
+      </c>
+      <c r="C86" s="21" t="s">
+        <v>288</v>
+      </c>
       <c r="D86" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E86" s="14"/>
+      <c r="E86" s="18" t="s">
+        <v>289</v>
+      </c>
       <c r="F86" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A87" s="6">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="B87" s="6"/>
-      <c r="C87" s="13"/>
+      <c r="B87" s="16">
+        <v>2239</v>
+      </c>
+      <c r="C87" s="16">
+        <v>31400671</v>
+      </c>
       <c r="D87" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E87" s="14"/>
+      <c r="E87" s="18" t="s">
+        <v>291</v>
+      </c>
       <c r="F87" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>44</v>
+        <v>290</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
@@ -3596,15 +3671,15 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A103" s="22" t="s">
+      <c r="A103" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="B103" s="22"/>
-      <c r="C103" s="22"/>
-      <c r="D103" s="22"/>
-      <c r="E103" s="22"/>
-      <c r="F103" s="22"/>
-      <c r="G103" s="22"/>
+      <c r="B103" s="23"/>
+      <c r="C103" s="23"/>
+      <c r="D103" s="23"/>
+      <c r="E103" s="23"/>
+      <c r="F103" s="23"/>
+      <c r="G103" s="23"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="6">
@@ -4806,15 +4881,15 @@
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A154" s="22" t="s">
+      <c r="A154" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="B154" s="22"/>
-      <c r="C154" s="22"/>
-      <c r="D154" s="22"/>
-      <c r="E154" s="22"/>
-      <c r="F154" s="22"/>
-      <c r="G154" s="22"/>
+      <c r="B154" s="23"/>
+      <c r="C154" s="23"/>
+      <c r="D154" s="23"/>
+      <c r="E154" s="23"/>
+      <c r="F154" s="23"/>
+      <c r="G154" s="23"/>
     </row>
     <row r="155" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A155" s="6">
@@ -4826,7 +4901,7 @@
       <c r="C155" s="16">
         <v>35908700</v>
       </c>
-      <c r="D155" s="23" t="s">
+      <c r="D155" s="22" t="s">
         <v>5</v>
       </c>
       <c r="E155" s="17" t="s">
@@ -4835,7 +4910,7 @@
       <c r="F155" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G155" s="23" t="s">
+      <c r="G155" s="22" t="s">
         <v>271</v>
       </c>
     </row>
@@ -4844,28 +4919,28 @@
         <f>A155+1</f>
         <v>2</v>
       </c>
-      <c r="D156" s="23" t="s">
+      <c r="D156" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G156" s="23" t="s">
+      <c r="G156" s="22" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157">
-        <f t="shared" ref="A157:A209" si="4">A156+1</f>
+        <f t="shared" ref="A157:A204" si="4">A156+1</f>
         <v>3</v>
       </c>
-      <c r="D157" s="23" t="s">
+      <c r="D157" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G157" s="23" t="s">
+      <c r="G157" s="22" t="s">
         <v>270</v>
       </c>
     </row>
@@ -4874,13 +4949,13 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="D158" s="23" t="s">
+      <c r="D158" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G158" s="23" t="s">
+      <c r="G158" s="22" t="s">
         <v>270</v>
       </c>
     </row>
@@ -4889,13 +4964,13 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="D159" s="23" t="s">
+      <c r="D159" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G159" s="23" t="s">
+      <c r="G159" s="22" t="s">
         <v>270</v>
       </c>
     </row>
@@ -4904,13 +4979,13 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="D160" s="23" t="s">
+      <c r="D160" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G160" s="23" t="s">
+      <c r="G160" s="22" t="s">
         <v>270</v>
       </c>
     </row>
@@ -4919,13 +4994,13 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="D161" s="23" t="s">
+      <c r="D161" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G161" s="23" t="s">
+      <c r="G161" s="22" t="s">
         <v>270</v>
       </c>
     </row>
@@ -4934,13 +5009,13 @@
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="D162" s="23" t="s">
+      <c r="D162" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G162" s="23" t="s">
+      <c r="G162" s="22" t="s">
         <v>270</v>
       </c>
     </row>
@@ -4949,13 +5024,13 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="D163" s="23" t="s">
+      <c r="D163" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G163" s="23" t="s">
+      <c r="G163" s="22" t="s">
         <v>270</v>
       </c>
     </row>
@@ -4964,13 +5039,13 @@
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="D164" s="23" t="s">
+      <c r="D164" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G164" s="23" t="s">
+      <c r="G164" s="22" t="s">
         <v>270</v>
       </c>
     </row>
@@ -4979,13 +5054,13 @@
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="D165" s="23" t="s">
+      <c r="D165" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G165" s="23" t="s">
+      <c r="G165" s="22" t="s">
         <v>270</v>
       </c>
     </row>
@@ -4994,13 +5069,13 @@
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="D166" s="23" t="s">
+      <c r="D166" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G166" s="23" t="s">
+      <c r="G166" s="22" t="s">
         <v>270</v>
       </c>
     </row>
@@ -5009,13 +5084,13 @@
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="D167" s="23" t="s">
+      <c r="D167" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G167" s="23" t="s">
+      <c r="G167" s="22" t="s">
         <v>270</v>
       </c>
     </row>
@@ -5024,13 +5099,13 @@
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="D168" s="23" t="s">
+      <c r="D168" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G168" s="23" t="s">
+      <c r="G168" s="22" t="s">
         <v>270</v>
       </c>
     </row>
@@ -5039,13 +5114,13 @@
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="D169" s="23" t="s">
+      <c r="D169" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G169" s="23" t="s">
+      <c r="G169" s="22" t="s">
         <v>270</v>
       </c>
     </row>
@@ -5054,13 +5129,13 @@
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="D170" s="23" t="s">
+      <c r="D170" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G170" s="23" t="s">
+      <c r="G170" s="22" t="s">
         <v>270</v>
       </c>
     </row>
@@ -5069,13 +5144,13 @@
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="D171" s="23" t="s">
+      <c r="D171" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G171" s="23" t="s">
+      <c r="G171" s="22" t="s">
         <v>270</v>
       </c>
     </row>
@@ -5084,13 +5159,13 @@
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="D172" s="23" t="s">
+      <c r="D172" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G172" s="23" t="s">
+      <c r="G172" s="22" t="s">
         <v>270</v>
       </c>
     </row>
@@ -5099,13 +5174,13 @@
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="D173" s="23" t="s">
+      <c r="D173" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G173" s="23" t="s">
+      <c r="G173" s="22" t="s">
         <v>270</v>
       </c>
     </row>
@@ -5114,13 +5189,13 @@
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="D174" s="23" t="s">
+      <c r="D174" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G174" s="23" t="s">
+      <c r="G174" s="22" t="s">
         <v>270</v>
       </c>
     </row>
@@ -5129,13 +5204,13 @@
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="D175" s="23" t="s">
+      <c r="D175" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G175" s="23" t="s">
+      <c r="G175" s="22" t="s">
         <v>270</v>
       </c>
     </row>
@@ -5144,13 +5219,13 @@
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="D176" s="23" t="s">
+      <c r="D176" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G176" s="23" t="s">
+      <c r="G176" s="22" t="s">
         <v>270</v>
       </c>
     </row>
@@ -5159,13 +5234,13 @@
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="D177" s="23" t="s">
+      <c r="D177" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G177" s="23" t="s">
+      <c r="G177" s="22" t="s">
         <v>270</v>
       </c>
     </row>
@@ -5174,13 +5249,13 @@
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="D178" s="23" t="s">
+      <c r="D178" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G178" s="23" t="s">
+      <c r="G178" s="22" t="s">
         <v>270</v>
       </c>
     </row>
@@ -5189,13 +5264,13 @@
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="D179" s="23" t="s">
+      <c r="D179" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G179" s="23" t="s">
+      <c r="G179" s="22" t="s">
         <v>270</v>
       </c>
     </row>
@@ -5204,13 +5279,13 @@
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="D180" s="23" t="s">
+      <c r="D180" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G180" s="23" t="s">
+      <c r="G180" s="22" t="s">
         <v>270</v>
       </c>
     </row>
@@ -5219,13 +5294,13 @@
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="D181" s="23" t="s">
+      <c r="D181" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G181" s="23" t="s">
+      <c r="G181" s="22" t="s">
         <v>270</v>
       </c>
     </row>
@@ -5234,13 +5309,13 @@
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="D182" s="23" t="s">
+      <c r="D182" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G182" s="23" t="s">
+      <c r="G182" s="22" t="s">
         <v>270</v>
       </c>
     </row>
@@ -5249,13 +5324,13 @@
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="D183" s="23" t="s">
+      <c r="D183" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G183" s="23" t="s">
+      <c r="G183" s="22" t="s">
         <v>270</v>
       </c>
     </row>
@@ -5264,13 +5339,13 @@
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="D184" s="23" t="s">
+      <c r="D184" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G184" s="23" t="s">
+      <c r="G184" s="22" t="s">
         <v>270</v>
       </c>
     </row>
@@ -5279,13 +5354,13 @@
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="D185" s="23" t="s">
+      <c r="D185" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G185" s="23" t="s">
+      <c r="G185" s="22" t="s">
         <v>270</v>
       </c>
     </row>
@@ -5294,13 +5369,13 @@
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="D186" s="23" t="s">
+      <c r="D186" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G186" s="23" t="s">
+      <c r="G186" s="22" t="s">
         <v>270</v>
       </c>
     </row>
@@ -5309,13 +5384,13 @@
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
-      <c r="D187" s="23" t="s">
+      <c r="D187" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G187" s="23" t="s">
+      <c r="G187" s="22" t="s">
         <v>270</v>
       </c>
     </row>
@@ -5324,13 +5399,13 @@
         <f>A187+1</f>
         <v>34</v>
       </c>
-      <c r="D188" s="23" t="s">
+      <c r="D188" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G188" s="23" t="s">
+      <c r="G188" s="22" t="s">
         <v>270</v>
       </c>
     </row>
@@ -5339,13 +5414,13 @@
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="D189" s="23" t="s">
+      <c r="D189" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G189" s="23" t="s">
+      <c r="G189" s="22" t="s">
         <v>270</v>
       </c>
     </row>
@@ -5354,13 +5429,13 @@
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
-      <c r="D190" s="23" t="s">
+      <c r="D190" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G190" s="23" t="s">
+      <c r="G190" s="22" t="s">
         <v>270</v>
       </c>
     </row>
@@ -5369,13 +5444,13 @@
         <f t="shared" si="4"/>
         <v>37</v>
       </c>
-      <c r="D191" s="23" t="s">
+      <c r="D191" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G191" s="23" t="s">
+      <c r="G191" s="22" t="s">
         <v>270</v>
       </c>
     </row>
@@ -5384,13 +5459,13 @@
         <f t="shared" si="4"/>
         <v>38</v>
       </c>
-      <c r="D192" s="23" t="s">
+      <c r="D192" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G192" s="23" t="s">
+      <c r="G192" s="22" t="s">
         <v>270</v>
       </c>
     </row>
@@ -5399,13 +5474,13 @@
         <f t="shared" si="4"/>
         <v>39</v>
       </c>
-      <c r="D193" s="23" t="s">
+      <c r="D193" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G193" s="23" t="s">
+      <c r="G193" s="22" t="s">
         <v>270</v>
       </c>
     </row>
@@ -5414,13 +5489,13 @@
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="D194" s="23" t="s">
+      <c r="D194" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G194" s="23" t="s">
+      <c r="G194" s="22" t="s">
         <v>270</v>
       </c>
     </row>
@@ -5429,13 +5504,13 @@
         <f t="shared" si="4"/>
         <v>41</v>
       </c>
-      <c r="D195" s="23" t="s">
+      <c r="D195" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G195" s="23" t="s">
+      <c r="G195" s="22" t="s">
         <v>270</v>
       </c>
     </row>
@@ -5444,13 +5519,13 @@
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
-      <c r="D196" s="23" t="s">
+      <c r="D196" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G196" s="23" t="s">
+      <c r="G196" s="22" t="s">
         <v>270</v>
       </c>
     </row>
@@ -5459,13 +5534,13 @@
         <f t="shared" si="4"/>
         <v>43</v>
       </c>
-      <c r="D197" s="23" t="s">
+      <c r="D197" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G197" s="23" t="s">
+      <c r="G197" s="22" t="s">
         <v>270</v>
       </c>
     </row>
@@ -5474,13 +5549,13 @@
         <f t="shared" si="4"/>
         <v>44</v>
       </c>
-      <c r="D198" s="23" t="s">
+      <c r="D198" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G198" s="23" t="s">
+      <c r="G198" s="22" t="s">
         <v>270</v>
       </c>
     </row>
@@ -5489,13 +5564,13 @@
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
-      <c r="D199" s="23" t="s">
+      <c r="D199" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G199" s="23" t="s">
+      <c r="G199" s="22" t="s">
         <v>270</v>
       </c>
     </row>
@@ -5504,13 +5579,13 @@
         <f t="shared" si="4"/>
         <v>46</v>
       </c>
-      <c r="D200" s="23" t="s">
+      <c r="D200" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G200" s="23" t="s">
+      <c r="G200" s="22" t="s">
         <v>270</v>
       </c>
     </row>
@@ -5519,13 +5594,13 @@
         <f t="shared" si="4"/>
         <v>47</v>
       </c>
-      <c r="D201" s="23" t="s">
+      <c r="D201" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G201" s="23" t="s">
+      <c r="G201" s="22" t="s">
         <v>270</v>
       </c>
     </row>
@@ -5534,13 +5609,13 @@
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
-      <c r="D202" s="23" t="s">
+      <c r="D202" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G202" s="23" t="s">
+      <c r="G202" s="22" t="s">
         <v>270</v>
       </c>
     </row>
@@ -5549,13 +5624,13 @@
         <f t="shared" si="4"/>
         <v>49</v>
       </c>
-      <c r="D203" s="23" t="s">
+      <c r="D203" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G203" s="23" t="s">
+      <c r="G203" s="22" t="s">
         <v>270</v>
       </c>
     </row>
@@ -5564,13 +5639,13 @@
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="D204" s="23" t="s">
+      <c r="D204" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G204" s="23" t="s">
+      <c r="G204" s="22" t="s">
         <v>270</v>
       </c>
     </row>

--- a/Dataset/list.xlsx
+++ b/Dataset/list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FMFI\1. semester\Bakalárka\na_git\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA31AFBB-3AB1-44AB-B6C5-DA7BC25852E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A6F8D2-6B11-4969-901B-95F0E519456E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4596" yWindow="0" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hárok1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="305">
   <si>
     <t>Číslo vložky</t>
   </si>
@@ -903,7 +903,43 @@
     <t>Jan Knyttl, Ing. Tomáš Belavý</t>
   </si>
   <si>
-    <t>po 2303</t>
+    <t>statutar\18934.pdf</t>
+  </si>
+  <si>
+    <t>statutar\38551.pdf</t>
+  </si>
+  <si>
+    <t>Ing. Jindřich Frič Ph.D.</t>
+  </si>
+  <si>
+    <t>možno bude treba odstraniť tých, ktorý sú KUV podľa 6a ods. 1</t>
+  </si>
+  <si>
+    <t>statutar\23053.pdf</t>
+  </si>
+  <si>
+    <t>Ing. Jaromír Algayer, Ing. Alena Horníková</t>
+  </si>
+  <si>
+    <t>statutar\119328.pdf</t>
+  </si>
+  <si>
+    <t>MUDr. Vladimír Lengvarský, MUDr. Tomáš Sieber</t>
+  </si>
+  <si>
+    <t>Kombinované</t>
+  </si>
+  <si>
+    <t>https://rpvs.gov.sk/rpvs/Partner/Partner/Detail/2420</t>
+  </si>
+  <si>
+    <t>statutar\105370.pdf</t>
+  </si>
+  <si>
+    <t>Benedikt Lavrinčík, Ing. Peter Dobrý, Ing. Peter Kurilla PhD.</t>
+  </si>
+  <si>
+    <t>po 2527</t>
   </si>
 </sst>
 </file>
@@ -1301,11 +1337,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P204"/>
+  <dimension ref="A1:P207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O90" sqref="O90"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M96" sqref="M96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2845,7 +2881,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -2869,7 +2905,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -2893,7 +2929,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -2917,7 +2953,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -2941,7 +2977,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
         <f t="shared" ref="A69:A101" si="2">A68+1</f>
         <v>17</v>
@@ -2965,7 +3001,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -2989,7 +3025,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -3013,7 +3049,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -3037,7 +3073,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A73" s="6">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -3061,7 +3097,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -3085,7 +3121,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -3109,7 +3145,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A76" s="6">
         <f t="shared" si="2"/>
         <v>24</v>
@@ -3133,7 +3169,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A77" s="6">
         <f t="shared" si="2"/>
         <v>25</v>
@@ -3157,7 +3193,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A78" s="6">
         <f t="shared" si="2"/>
         <v>26</v>
@@ -3180,11 +3216,8 @@
       <c r="G78" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="K78" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A79" s="6">
         <f t="shared" si="2"/>
         <v>27</v>
@@ -3208,7 +3241,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A80" s="6">
         <f t="shared" si="2"/>
         <v>28</v>
@@ -3232,7 +3265,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A81" s="6">
         <f t="shared" si="2"/>
         <v>29</v>
@@ -3256,7 +3289,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A82" s="6">
         <f t="shared" si="2"/>
         <v>30</v>
@@ -3280,7 +3313,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A83" s="6">
         <f t="shared" si="2"/>
         <v>31</v>
@@ -3304,7 +3337,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A84" s="6">
         <f t="shared" si="2"/>
         <v>32</v>
@@ -3328,7 +3361,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A85" s="6">
         <f t="shared" si="2"/>
         <v>33</v>
@@ -3351,8 +3384,11 @@
       <c r="G85" s="6" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L85" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A86" s="6">
         <f t="shared" si="2"/>
         <v>34</v>
@@ -3376,7 +3412,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A87" s="6">
         <f t="shared" si="2"/>
         <v>35</v>
@@ -3400,97 +3436,127 @@
         <v>290</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A88" s="6">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="B88" s="6"/>
-      <c r="C88" s="13"/>
+      <c r="B88" s="16">
+        <v>2308</v>
+      </c>
+      <c r="C88" s="16">
+        <v>17083851</v>
+      </c>
       <c r="D88" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E88" s="14"/>
+      <c r="E88" s="17" t="s">
+        <v>286</v>
+      </c>
       <c r="F88" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A89" s="6">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="B89" s="6"/>
-      <c r="C89" s="13"/>
+      <c r="B89" s="16">
+        <v>2331</v>
+      </c>
+      <c r="C89" s="16">
+        <v>44994575</v>
+      </c>
       <c r="D89" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E89" s="14"/>
+      <c r="E89" s="17" t="s">
+        <v>294</v>
+      </c>
       <c r="F89" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A90" s="6">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="B90" s="6"/>
-      <c r="C90" s="13"/>
+      <c r="B90" s="16">
+        <v>2351</v>
+      </c>
+      <c r="C90" s="16">
+        <v>46343008</v>
+      </c>
       <c r="D90" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E90" s="14"/>
+      <c r="E90" s="18" t="s">
+        <v>297</v>
+      </c>
       <c r="F90" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A91" s="6">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="B91" s="6"/>
-      <c r="C91" s="13"/>
+      <c r="B91" s="16">
+        <v>2384</v>
+      </c>
+      <c r="C91" s="16">
+        <v>31936415</v>
+      </c>
       <c r="D91" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E91" s="14"/>
+      <c r="E91" s="18" t="s">
+        <v>299</v>
+      </c>
       <c r="F91" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A92" s="6">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="B92" s="6"/>
-      <c r="C92" s="13"/>
+      <c r="B92" s="16">
+        <v>2513</v>
+      </c>
+      <c r="C92" s="16">
+        <v>36042544</v>
+      </c>
       <c r="D92" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E92" s="14"/>
+      <c r="E92" s="18" t="s">
+        <v>303</v>
+      </c>
       <c r="F92" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="6">
         <f t="shared" si="2"/>
         <v>41</v>
@@ -3508,7 +3574,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="6">
         <f t="shared" si="2"/>
         <v>42</v>
@@ -3526,7 +3592,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="6">
         <f t="shared" si="2"/>
         <v>43</v>
@@ -3543,8 +3609,11 @@
       <c r="G95" s="6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K95" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="6">
         <f t="shared" si="2"/>
         <v>44</v>
@@ -5647,6 +5716,16 @@
       </c>
       <c r="G204" s="22" t="s">
         <v>270</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>

--- a/Dataset/list.xlsx
+++ b/Dataset/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FMFI\1. semester\Bakalárka\na_git\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A6F8D2-6B11-4969-901B-95F0E519456E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA1AEC9-F668-43C4-BB10-9151FB3692AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="314">
   <si>
     <t>Číslo vložky</t>
   </si>
@@ -939,7 +939,34 @@
     <t>Benedikt Lavrinčík, Ing. Peter Dobrý, Ing. Peter Kurilla PhD.</t>
   </si>
   <si>
-    <t>po 2527</t>
+    <t>statutar\119773.pdf</t>
+  </si>
+  <si>
+    <t>HRB 75277</t>
+  </si>
+  <si>
+    <t>Nikolaus-Martin Przybyla, Dr. Carsten Hoffmann, Patrick Smolka, Yoshio Motohashi</t>
+  </si>
+  <si>
+    <t>statutar\116457.pdf</t>
+  </si>
+  <si>
+    <t>Ing. Ján Jurica, Ing. Peter Krpeľan, Ing. Michal Dudák, Ing. Jozef Bittara, Ing. Štefan Rak</t>
+  </si>
+  <si>
+    <t>statutar\104244.pdf</t>
+  </si>
+  <si>
+    <t>Ing. Jozef Krok</t>
+  </si>
+  <si>
+    <t>statutar\62617.pdf</t>
+  </si>
+  <si>
+    <t>Ing. Jiří Svoboda, Ing. Tomáš Keberle, Ing. Martin Pajer</t>
+  </si>
+  <si>
+    <t>po 2651</t>
   </si>
 </sst>
 </file>
@@ -1340,8 +1367,8 @@
   <dimension ref="A1:P207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M96" sqref="M96"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N92" sqref="N92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3556,79 +3583,103 @@
         <v>302</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A93" s="6">
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="B93" s="6"/>
-      <c r="C93" s="13"/>
+      <c r="B93" s="16">
+        <v>2533</v>
+      </c>
+      <c r="C93" s="21" t="s">
+        <v>305</v>
+      </c>
       <c r="D93" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E93" s="14"/>
+      <c r="E93" s="18" t="s">
+        <v>306</v>
+      </c>
       <c r="F93" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A94" s="6">
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="B94" s="6"/>
-      <c r="C94" s="13"/>
+      <c r="B94" s="16">
+        <v>2539</v>
+      </c>
+      <c r="C94" s="16">
+        <v>31577920</v>
+      </c>
       <c r="D94" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E94" s="14"/>
+      <c r="E94" s="18" t="s">
+        <v>308</v>
+      </c>
       <c r="F94" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A95" s="6">
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="B95" s="6"/>
-      <c r="C95" s="13"/>
+      <c r="B95" s="16">
+        <v>2540</v>
+      </c>
+      <c r="C95" s="16">
+        <v>36489042</v>
+      </c>
       <c r="D95" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E95" s="14"/>
+      <c r="E95" s="17" t="s">
+        <v>310</v>
+      </c>
       <c r="F95" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>44</v>
+        <v>309</v>
       </c>
       <c r="K95" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A96" s="6">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="B96" s="6"/>
-      <c r="C96" s="13"/>
+      <c r="B96" s="16">
+        <v>2609</v>
+      </c>
+      <c r="C96" s="16">
+        <v>219169</v>
+      </c>
       <c r="D96" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E96" s="14"/>
+      <c r="E96" s="18" t="s">
+        <v>312</v>
+      </c>
       <c r="F96" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>44</v>
+        <v>311</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">

--- a/Dataset/list.xlsx
+++ b/Dataset/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FMFI\1. semester\Bakalárka\na_git\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA1AEC9-F668-43C4-BB10-9151FB3692AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D36564-BAA5-4BD2-9E28-02737F433467}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="322">
   <si>
     <t>Číslo vložky</t>
   </si>
@@ -966,14 +966,38 @@
     <t>Ing. Jiří Svoboda, Ing. Tomáš Keberle, Ing. Martin Pajer</t>
   </si>
   <si>
-    <t>po 2651</t>
+    <t>statutar\21849.pdf</t>
+  </si>
+  <si>
+    <t>Ing. René Kolář, Xénia Košútová</t>
+  </si>
+  <si>
+    <t>test_statutar\20958.pdf</t>
+  </si>
+  <si>
+    <t>Ing. René Kolář, Ing. Libor Kňazovický</t>
+  </si>
+  <si>
+    <t>statutar\83566.pdf</t>
+  </si>
+  <si>
+    <t>Ing. Michal Chovanec, Ivana Hrončeková</t>
+  </si>
+  <si>
+    <t>statutar\114634.pdf</t>
+  </si>
+  <si>
+    <t>Ing. Pavel Mík MBA, Martina Ondrášová, Ing. Ivana Lastomírska PhD.</t>
+  </si>
+  <si>
+    <t>po 2765</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -998,6 +1022,12 @@
       <b/>
       <sz val="7"/>
       <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1043,7 +1073,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -1084,6 +1114,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
@@ -1367,8 +1398,8 @@
   <dimension ref="A1:P207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N92" sqref="N92"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K98" sqref="K98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3655,7 +3686,7 @@
         <v>309</v>
       </c>
       <c r="K95" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3682,58 +3713,76 @@
         <v>311</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A97" s="6">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="B97" s="6"/>
-      <c r="C97" s="13"/>
+      <c r="B97" s="16">
+        <v>2688</v>
+      </c>
+      <c r="C97" s="16">
+        <v>31412971</v>
+      </c>
       <c r="D97" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E97" s="14"/>
+      <c r="E97" s="18" t="s">
+        <v>314</v>
+      </c>
       <c r="F97" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A98" s="6">
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
-      <c r="B98" s="6"/>
-      <c r="C98" s="13"/>
+      <c r="B98" s="24">
+        <v>2700</v>
+      </c>
+      <c r="C98" s="16">
+        <v>36354694</v>
+      </c>
       <c r="D98" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E98" s="14"/>
+      <c r="E98" s="18" t="s">
+        <v>318</v>
+      </c>
       <c r="F98" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A99" s="6">
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="B99" s="6"/>
-      <c r="C99" s="13"/>
+      <c r="B99" s="16">
+        <v>2725</v>
+      </c>
+      <c r="C99" s="16">
+        <v>31389325</v>
+      </c>
       <c r="D99" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E99" s="14"/>
+      <c r="E99" s="18" t="s">
+        <v>320</v>
+      </c>
       <c r="F99" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>44</v>
+        <v>319</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
@@ -5034,19 +5083,28 @@
         <v>271</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A156">
         <f>A155+1</f>
         <v>2</v>
       </c>
+      <c r="B156" s="16">
+        <v>2687</v>
+      </c>
+      <c r="C156" s="16">
+        <v>36245895</v>
+      </c>
       <c r="D156" s="22" t="s">
         <v>5</v>
       </c>
+      <c r="E156" s="18" t="s">
+        <v>316</v>
+      </c>
       <c r="F156" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G156" s="22" t="s">
-        <v>270</v>
+        <v>315</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">

--- a/Dataset/list.xlsx
+++ b/Dataset/list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FMFI\1. semester\Bakalárka\na_git\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D36564-BAA5-4BD2-9E28-02737F433467}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C9C138-C3BA-4589-9379-B67B706252E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="335">
   <si>
     <t>Číslo vložky</t>
   </si>
@@ -159,9 +159,6 @@
     <t>Martin Koníček MBA</t>
   </si>
   <si>
-    <t>statutar\</t>
-  </si>
-  <si>
     <t>majitel\8923.pdf</t>
   </si>
   <si>
@@ -990,7 +987,49 @@
     <t>Ing. Pavel Mík MBA, Martina Ondrášová, Ing. Ivana Lastomírska PhD.</t>
   </si>
   <si>
-    <t>po 2765</t>
+    <t>statutar\117151.pdf</t>
+  </si>
+  <si>
+    <t>Františka Hrnčiarová, Ing. Ľubomír Čutka, Ing. Miroslav Štefček, Mgr. Miroslava Plávková, Ing. Jozef Šablatúra, Tibor Fábry</t>
+  </si>
+  <si>
+    <t>statutar\113165.pdf</t>
+  </si>
+  <si>
+    <t>Ing. Oľga Zábojníková MPH</t>
+  </si>
+  <si>
+    <t>test_statutar\73662.pdf</t>
+  </si>
+  <si>
+    <t>Ing. Stanislav Vilček</t>
+  </si>
+  <si>
+    <t>statutar\100885.pdf</t>
+  </si>
+  <si>
+    <t>Grazia Volo, Franco Passacantando, Giuseppina Capaldo, atd</t>
+  </si>
+  <si>
+    <t>test_statutar\102140.pdf</t>
+  </si>
+  <si>
+    <t>Ing. Jozef Jarošinec</t>
+  </si>
+  <si>
+    <t>Divné veci:</t>
+  </si>
+  <si>
+    <t>https://rpvs.gov.sk/rpvs/Partner/Partner/Detail/3182</t>
+  </si>
+  <si>
+    <t>test_statutar\102514.pdf</t>
+  </si>
+  <si>
+    <t>Ing. Karol Vanko, Ing. Peter Duchovič, Ing. Ján Kysucký</t>
+  </si>
+  <si>
+    <t>po 3321</t>
   </si>
 </sst>
 </file>
@@ -1073,7 +1112,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -1096,7 +1135,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -1111,10 +1149,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
@@ -1398,8 +1436,8 @@
   <dimension ref="A1:P207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K98" sqref="K98"/>
+      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L160" sqref="L160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1600,7 +1638,7 @@
         <v>21</v>
       </c>
       <c r="P8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -1627,7 +1665,7 @@
         <v>23</v>
       </c>
       <c r="P9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -1654,7 +1692,7 @@
         <v>25</v>
       </c>
       <c r="P10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -1713,7 +1751,7 @@
       <c r="B13" s="8">
         <v>38</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="14">
         <v>45232270</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -1840,13 +1878,13 @@
         <v>5</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1864,13 +1902,13 @@
         <v>5</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1888,13 +1926,13 @@
         <v>5</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1912,13 +1950,13 @@
         <v>5</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1936,13 +1974,13 @@
         <v>5</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1960,13 +1998,13 @@
         <v>5</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1984,13 +2022,13 @@
         <v>5</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -2008,13 +2046,13 @@
         <v>5</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -2032,13 +2070,13 @@
         <v>5</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -2056,13 +2094,13 @@
         <v>5</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -2080,13 +2118,13 @@
         <v>5</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -2104,13 +2142,13 @@
         <v>5</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -2128,13 +2166,13 @@
         <v>5</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -2152,13 +2190,13 @@
         <v>5</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -2176,13 +2214,13 @@
         <v>5</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -2200,13 +2238,13 @@
         <v>5</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -2224,13 +2262,13 @@
         <v>5</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -2248,13 +2286,13 @@
         <v>5</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -2272,13 +2310,13 @@
         <v>5</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -2296,13 +2334,13 @@
         <v>5</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -2320,13 +2358,13 @@
         <v>5</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -2344,13 +2382,13 @@
         <v>5</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -2368,13 +2406,13 @@
         <v>5</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -2392,13 +2430,13 @@
         <v>5</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -2416,13 +2454,13 @@
         <v>5</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -2440,13 +2478,13 @@
         <v>5</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -2464,13 +2502,13 @@
         <v>5</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -2488,13 +2526,13 @@
         <v>5</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -2512,13 +2550,13 @@
         <v>5</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -2536,13 +2574,13 @@
         <v>5</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -2560,13 +2598,13 @@
         <v>5</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -2584,13 +2622,13 @@
         <v>5</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -2608,13 +2646,13 @@
         <v>5</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -2632,18 +2670,18 @@
         <v>5</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B52" s="23"/>
       <c r="C52" s="23"/>
@@ -2690,13 +2728,13 @@
         <v>5</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -2714,13 +2752,13 @@
         <v>5</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -2728,23 +2766,23 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B56" s="16">
+      <c r="B56" s="15">
         <v>530</v>
       </c>
-      <c r="C56" s="16">
+      <c r="C56" s="15">
         <v>196452</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -2752,23 +2790,23 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B57" s="16">
+      <c r="B57" s="15">
         <v>611</v>
       </c>
-      <c r="C57" s="16">
+      <c r="C57" s="15">
         <v>44299311</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E57" s="17" t="s">
-        <v>223</v>
+      <c r="E57" s="16" t="s">
+        <v>222</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -2776,23 +2814,23 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B58" s="16">
+      <c r="B58" s="15">
         <v>710</v>
       </c>
-      <c r="C58" s="16">
+      <c r="C58" s="15">
         <v>31399614</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -2800,23 +2838,23 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B59" s="16">
+      <c r="B59" s="15">
         <v>683</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -2824,23 +2862,23 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B60" s="16">
+      <c r="B60" s="15">
         <v>814</v>
       </c>
-      <c r="C60" s="16">
+      <c r="C60" s="15">
         <v>165506</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E60" s="17" t="s">
-        <v>232</v>
+      <c r="E60" s="16" t="s">
+        <v>231</v>
       </c>
       <c r="F60" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -2848,23 +2886,23 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B61" s="16">
+      <c r="B61" s="15">
         <v>830</v>
       </c>
-      <c r="C61" s="16">
+      <c r="C61" s="15">
         <v>397687</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E61" s="17" t="s">
-        <v>234</v>
+      <c r="E61" s="16" t="s">
+        <v>233</v>
       </c>
       <c r="F61" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -2872,23 +2910,23 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B62" s="16">
+      <c r="B62" s="15">
         <v>949</v>
       </c>
-      <c r="C62" s="16">
+      <c r="C62" s="15">
         <v>28399757</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E62" s="17" t="s">
-        <v>236</v>
+      <c r="E62" s="16" t="s">
+        <v>235</v>
       </c>
       <c r="F62" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -2896,23 +2934,23 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B63" s="16">
+      <c r="B63" s="15">
         <v>1037</v>
       </c>
-      <c r="C63" s="16">
+      <c r="C63" s="15">
         <v>35884916</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E63" s="18" t="s">
-        <v>238</v>
+      <c r="E63" s="17" t="s">
+        <v>237</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -2920,23 +2958,23 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B64" s="16">
+      <c r="B64" s="15">
         <v>1084</v>
       </c>
-      <c r="C64" s="16">
+      <c r="C64" s="15">
         <v>46540873</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E64" s="17" t="s">
-        <v>240</v>
+      <c r="E64" s="16" t="s">
+        <v>239</v>
       </c>
       <c r="F64" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -2944,23 +2982,23 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B65" s="16">
+      <c r="B65" s="15">
         <v>1240</v>
       </c>
-      <c r="C65" s="21" t="s">
+      <c r="C65" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E65" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="D65" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E65" s="17" t="s">
-        <v>244</v>
-      </c>
       <c r="F65" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -2968,23 +3006,23 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B66" s="16">
+      <c r="B66" s="15">
         <v>1404</v>
       </c>
-      <c r="C66" s="16">
+      <c r="C66" s="15">
         <v>34116940</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E66" s="18" t="s">
-        <v>246</v>
+      <c r="E66" s="17" t="s">
+        <v>245</v>
       </c>
       <c r="F66" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -2992,23 +3030,23 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B67" s="16">
+      <c r="B67" s="15">
         <v>1690</v>
       </c>
-      <c r="C67" s="16">
+      <c r="C67" s="15">
         <v>35802871</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E67" s="18" t="s">
-        <v>254</v>
+      <c r="E67" s="17" t="s">
+        <v>253</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3016,23 +3054,23 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B68" s="16">
+      <c r="B68" s="15">
         <v>1634</v>
       </c>
-      <c r="C68" s="16">
+      <c r="C68" s="15">
         <v>31411851</v>
       </c>
       <c r="D68" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E68" s="18" t="s">
-        <v>247</v>
+      <c r="E68" s="17" t="s">
+        <v>246</v>
       </c>
       <c r="F68" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3040,23 +3078,23 @@
         <f t="shared" ref="A69:A101" si="2">A68+1</f>
         <v>17</v>
       </c>
-      <c r="B69" s="16">
+      <c r="B69" s="15">
         <v>1656</v>
       </c>
-      <c r="C69" s="16">
+      <c r="C69" s="15">
         <v>36228290</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E69" s="17" t="s">
-        <v>249</v>
+      <c r="E69" s="16" t="s">
+        <v>248</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3064,23 +3102,23 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="B70" s="16">
+      <c r="B70" s="15">
         <v>1671</v>
       </c>
-      <c r="C70" s="16">
+      <c r="C70" s="15">
         <v>28968506</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E70" s="18" t="s">
-        <v>251</v>
+      <c r="E70" s="17" t="s">
+        <v>250</v>
       </c>
       <c r="F70" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3088,23 +3126,23 @@
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="B71" s="16">
+      <c r="B71" s="15">
         <v>1691</v>
       </c>
-      <c r="C71" s="16">
+      <c r="C71" s="15">
         <v>36179345</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E71" s="18" t="s">
-        <v>256</v>
+      <c r="E71" s="17" t="s">
+        <v>255</v>
       </c>
       <c r="F71" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3112,23 +3150,23 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="B72" s="16">
+      <c r="B72" s="15">
         <v>1693</v>
       </c>
-      <c r="C72" s="16">
+      <c r="C72" s="15">
         <v>31365787</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E72" s="18" t="s">
-        <v>258</v>
+      <c r="E72" s="17" t="s">
+        <v>257</v>
       </c>
       <c r="F72" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3136,23 +3174,23 @@
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="B73" s="16">
+      <c r="B73" s="15">
         <v>1694</v>
       </c>
-      <c r="C73" s="16">
+      <c r="C73" s="15">
         <v>46782532</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E73" s="17" t="s">
-        <v>256</v>
+      <c r="E73" s="16" t="s">
+        <v>255</v>
       </c>
       <c r="F73" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3160,23 +3198,23 @@
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="B74" s="16">
+      <c r="B74" s="15">
         <v>1695</v>
       </c>
-      <c r="C74" s="16">
+      <c r="C74" s="15">
         <v>44069472</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E74" s="18" t="s">
-        <v>261</v>
+      <c r="E74" s="17" t="s">
+        <v>260</v>
       </c>
       <c r="F74" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3184,23 +3222,23 @@
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="B75" s="16">
+      <c r="B75" s="15">
         <v>1696</v>
       </c>
-      <c r="C75" s="16">
+      <c r="C75" s="15">
         <v>36622516</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E75" s="17" t="s">
-        <v>263</v>
+      <c r="E75" s="16" t="s">
+        <v>262</v>
       </c>
       <c r="F75" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3208,23 +3246,23 @@
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="B76" s="16">
+      <c r="B76" s="15">
         <v>1697</v>
       </c>
-      <c r="C76" s="16">
+      <c r="C76" s="15">
         <v>35747404</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E76" s="18" t="s">
-        <v>265</v>
+      <c r="E76" s="17" t="s">
+        <v>264</v>
       </c>
       <c r="F76" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3232,23 +3270,23 @@
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="B77" s="16">
+      <c r="B77" s="15">
         <v>1699</v>
       </c>
-      <c r="C77" s="16">
+      <c r="C77" s="15">
         <v>36629359</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E77" s="18" t="s">
-        <v>267</v>
+      <c r="E77" s="17" t="s">
+        <v>266</v>
       </c>
       <c r="F77" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3256,23 +3294,23 @@
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="B78" s="16">
+      <c r="B78" s="15">
         <v>1701</v>
       </c>
-      <c r="C78" s="16">
+      <c r="C78" s="15">
         <v>35713640</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E78" s="18" t="s">
-        <v>256</v>
+      <c r="E78" s="17" t="s">
+        <v>255</v>
       </c>
       <c r="F78" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3280,23 +3318,23 @@
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="B79" s="16">
+      <c r="B79" s="15">
         <v>1764</v>
       </c>
-      <c r="C79" s="16">
+      <c r="C79" s="15">
         <v>45747776</v>
       </c>
       <c r="D79" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E79" s="18" t="s">
-        <v>274</v>
+      <c r="E79" s="17" t="s">
+        <v>273</v>
       </c>
       <c r="F79" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3304,23 +3342,23 @@
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="B80" s="16">
+      <c r="B80" s="15">
         <v>1769</v>
       </c>
-      <c r="C80" s="16">
+      <c r="C80" s="15">
         <v>31821987</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E80" s="17" t="s">
-        <v>276</v>
+      <c r="E80" s="16" t="s">
+        <v>275</v>
       </c>
       <c r="F80" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3328,23 +3366,23 @@
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="B81" s="16">
+      <c r="B81" s="15">
         <v>1829</v>
       </c>
-      <c r="C81" s="16">
+      <c r="C81" s="15">
         <v>26688093</v>
       </c>
       <c r="D81" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E81" s="18" t="s">
-        <v>278</v>
+      <c r="E81" s="17" t="s">
+        <v>277</v>
       </c>
       <c r="F81" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3352,23 +3390,23 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="B82" s="16">
+      <c r="B82" s="15">
         <v>1945</v>
       </c>
-      <c r="C82" s="16">
+      <c r="C82" s="15">
         <v>31344046</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E82" s="18" t="s">
-        <v>280</v>
+      <c r="E82" s="17" t="s">
+        <v>279</v>
       </c>
       <c r="F82" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3376,23 +3414,23 @@
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="B83" s="16">
+      <c r="B83" s="15">
         <v>2019</v>
       </c>
-      <c r="C83" s="16">
+      <c r="C83" s="15">
         <v>46095969</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E83" s="18" t="s">
-        <v>282</v>
+      <c r="E83" s="17" t="s">
+        <v>281</v>
       </c>
       <c r="F83" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3400,23 +3438,23 @@
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="B84" s="16">
+      <c r="B84" s="15">
         <v>2056</v>
       </c>
-      <c r="C84" s="16">
+      <c r="C84" s="15">
         <v>47400781</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E84" s="18" t="s">
-        <v>284</v>
+      <c r="E84" s="17" t="s">
+        <v>283</v>
       </c>
       <c r="F84" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3424,26 +3462,26 @@
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="B85" s="16">
+      <c r="B85" s="15">
         <v>2136</v>
       </c>
-      <c r="C85" s="16">
+      <c r="C85" s="15">
         <v>35514221</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E85" s="17" t="s">
-        <v>286</v>
+      <c r="E85" s="16" t="s">
+        <v>285</v>
       </c>
       <c r="F85" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L85" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3451,23 +3489,23 @@
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="B86" s="16">
+      <c r="B86" s="15">
         <v>2210</v>
       </c>
-      <c r="C86" s="21" t="s">
+      <c r="C86" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E86" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="D86" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E86" s="18" t="s">
-        <v>289</v>
-      </c>
       <c r="F86" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3475,23 +3513,23 @@
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="B87" s="16">
+      <c r="B87" s="15">
         <v>2239</v>
       </c>
-      <c r="C87" s="16">
+      <c r="C87" s="15">
         <v>31400671</v>
       </c>
       <c r="D87" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E87" s="18" t="s">
-        <v>291</v>
+      <c r="E87" s="17" t="s">
+        <v>290</v>
       </c>
       <c r="F87" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3499,23 +3537,23 @@
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="B88" s="16">
+      <c r="B88" s="15">
         <v>2308</v>
       </c>
-      <c r="C88" s="16">
+      <c r="C88" s="15">
         <v>17083851</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E88" s="17" t="s">
-        <v>286</v>
+      <c r="E88" s="16" t="s">
+        <v>285</v>
       </c>
       <c r="F88" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3523,23 +3561,23 @@
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="B89" s="16">
+      <c r="B89" s="15">
         <v>2331</v>
       </c>
-      <c r="C89" s="16">
+      <c r="C89" s="15">
         <v>44994575</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E89" s="17" t="s">
-        <v>294</v>
+      <c r="E89" s="16" t="s">
+        <v>293</v>
       </c>
       <c r="F89" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3547,23 +3585,23 @@
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="B90" s="16">
+      <c r="B90" s="15">
         <v>2351</v>
       </c>
-      <c r="C90" s="16">
+      <c r="C90" s="15">
         <v>46343008</v>
       </c>
       <c r="D90" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E90" s="18" t="s">
-        <v>297</v>
+      <c r="E90" s="17" t="s">
+        <v>296</v>
       </c>
       <c r="F90" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3571,23 +3609,23 @@
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="B91" s="16">
+      <c r="B91" s="15">
         <v>2384</v>
       </c>
-      <c r="C91" s="16">
+      <c r="C91" s="15">
         <v>31936415</v>
       </c>
       <c r="D91" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E91" s="18" t="s">
-        <v>299</v>
+      <c r="E91" s="17" t="s">
+        <v>298</v>
       </c>
       <c r="F91" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3595,23 +3633,23 @@
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="B92" s="16">
+      <c r="B92" s="15">
         <v>2513</v>
       </c>
-      <c r="C92" s="16">
+      <c r="C92" s="15">
         <v>36042544</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E92" s="18" t="s">
-        <v>303</v>
+      <c r="E92" s="17" t="s">
+        <v>302</v>
       </c>
       <c r="F92" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3619,23 +3657,23 @@
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="B93" s="16">
+      <c r="B93" s="15">
         <v>2533</v>
       </c>
-      <c r="C93" s="21" t="s">
+      <c r="C93" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E93" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="D93" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E93" s="18" t="s">
-        <v>306</v>
-      </c>
       <c r="F93" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3643,23 +3681,23 @@
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="B94" s="16">
+      <c r="B94" s="15">
         <v>2539</v>
       </c>
-      <c r="C94" s="16">
+      <c r="C94" s="15">
         <v>31577920</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E94" s="18" t="s">
-        <v>308</v>
+      <c r="E94" s="17" t="s">
+        <v>307</v>
       </c>
       <c r="F94" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3667,26 +3705,23 @@
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="B95" s="16">
+      <c r="B95" s="15">
         <v>2540</v>
       </c>
-      <c r="C95" s="16">
+      <c r="C95" s="15">
         <v>36489042</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E95" s="17" t="s">
-        <v>310</v>
+      <c r="E95" s="16" t="s">
+        <v>309</v>
       </c>
       <c r="F95" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="K95" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3694,23 +3729,23 @@
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="B96" s="16">
+      <c r="B96" s="15">
         <v>2609</v>
       </c>
-      <c r="C96" s="16">
+      <c r="C96" s="15">
         <v>219169</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E96" s="18" t="s">
-        <v>312</v>
+      <c r="E96" s="17" t="s">
+        <v>311</v>
       </c>
       <c r="F96" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3718,23 +3753,23 @@
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="B97" s="16">
+      <c r="B97" s="15">
         <v>2688</v>
       </c>
-      <c r="C97" s="16">
+      <c r="C97" s="15">
         <v>31412971</v>
       </c>
       <c r="D97" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E97" s="18" t="s">
-        <v>314</v>
+      <c r="E97" s="17" t="s">
+        <v>313</v>
       </c>
       <c r="F97" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3742,23 +3777,23 @@
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
-      <c r="B98" s="24">
+      <c r="B98" s="22">
         <v>2700</v>
       </c>
-      <c r="C98" s="16">
+      <c r="C98" s="15">
         <v>36354694</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E98" s="18" t="s">
-        <v>318</v>
+      <c r="E98" s="17" t="s">
+        <v>317</v>
       </c>
       <c r="F98" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3766,82 +3801,100 @@
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="B99" s="16">
+      <c r="B99" s="15">
         <v>2725</v>
       </c>
-      <c r="C99" s="16">
+      <c r="C99" s="15">
         <v>31389325</v>
       </c>
       <c r="D99" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E99" s="18" t="s">
-        <v>320</v>
+      <c r="E99" s="17" t="s">
+        <v>319</v>
       </c>
       <c r="F99" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A100" s="6">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="B100" s="6"/>
-      <c r="C100" s="13"/>
+      <c r="B100" s="15">
+        <v>2771</v>
+      </c>
+      <c r="C100" s="15">
+        <v>195693</v>
+      </c>
       <c r="D100" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E100" s="14"/>
+      <c r="E100" s="17" t="s">
+        <v>321</v>
+      </c>
       <c r="F100" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A101" s="6">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="B101" s="6"/>
-      <c r="C101" s="13"/>
+      <c r="B101" s="15">
+        <v>2799</v>
+      </c>
+      <c r="C101" s="15">
+        <v>518140</v>
+      </c>
       <c r="D101" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E101" s="14"/>
+      <c r="E101" s="16" t="s">
+        <v>323</v>
+      </c>
       <c r="F101" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A102" s="6">
         <f>A101+1</f>
         <v>50</v>
       </c>
-      <c r="B102" s="6"/>
-      <c r="C102" s="13"/>
+      <c r="B102" s="15">
+        <v>2979</v>
+      </c>
+      <c r="C102" s="15">
+        <v>830660155</v>
+      </c>
       <c r="D102" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E102" s="14"/>
+      <c r="E102" s="17" t="s">
+        <v>327</v>
+      </c>
       <c r="F102" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>44</v>
+        <v>326</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B103" s="23"/>
       <c r="C103" s="23"/>
@@ -3864,13 +3917,13 @@
         <v>5</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F104" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
@@ -3888,13 +3941,13 @@
         <v>5</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F105" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
@@ -3912,13 +3965,13 @@
         <v>5</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F106" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
@@ -3936,13 +3989,13 @@
         <v>5</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F107" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
@@ -3960,13 +4013,13 @@
         <v>5</v>
       </c>
       <c r="E108" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F108" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
@@ -3984,13 +4037,13 @@
         <v>5</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F109" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
@@ -4008,13 +4061,13 @@
         <v>5</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F110" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
@@ -4032,13 +4085,13 @@
         <v>5</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F111" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
@@ -4056,13 +4109,13 @@
         <v>5</v>
       </c>
       <c r="E112" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F112" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
@@ -4080,13 +4133,13 @@
         <v>5</v>
       </c>
       <c r="E113" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F113" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
@@ -4104,13 +4157,13 @@
         <v>5</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F114" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4118,23 +4171,23 @@
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="B115" s="16">
+      <c r="B115" s="15">
         <v>289</v>
       </c>
-      <c r="C115" s="16">
+      <c r="C115" s="15">
         <v>36499439</v>
       </c>
       <c r="D115" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E115" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F115" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4142,23 +4195,23 @@
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="B116" s="16">
+      <c r="B116" s="15">
         <v>295</v>
       </c>
-      <c r="C116" s="16">
+      <c r="C116" s="15">
         <v>35872926</v>
       </c>
       <c r="D116" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E116" s="17" t="s">
-        <v>144</v>
+      <c r="E116" s="16" t="s">
+        <v>143</v>
       </c>
       <c r="F116" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4166,23 +4219,23 @@
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="B117" s="16">
+      <c r="B117" s="15">
         <v>302</v>
       </c>
-      <c r="C117" s="16">
+      <c r="C117" s="15">
         <v>35791187</v>
       </c>
       <c r="D117" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E117" s="17" t="s">
-        <v>146</v>
+      <c r="E117" s="16" t="s">
+        <v>145</v>
       </c>
       <c r="F117" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4190,23 +4243,23 @@
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="B118" s="16">
+      <c r="B118" s="15">
         <v>307</v>
       </c>
-      <c r="C118" s="16">
+      <c r="C118" s="15">
         <v>31580220</v>
       </c>
       <c r="D118" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E118" s="17" t="s">
-        <v>148</v>
+      <c r="E118" s="16" t="s">
+        <v>147</v>
       </c>
       <c r="F118" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4214,23 +4267,23 @@
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="B119" s="16">
+      <c r="B119" s="15">
         <v>312</v>
       </c>
-      <c r="C119" s="16">
+      <c r="C119" s="15">
         <v>47360119</v>
       </c>
       <c r="D119" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E119" s="17" t="s">
-        <v>150</v>
+      <c r="E119" s="16" t="s">
+        <v>149</v>
       </c>
       <c r="F119" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4238,23 +4291,23 @@
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="B120" s="16">
+      <c r="B120" s="15">
         <v>316</v>
       </c>
-      <c r="C120" s="16">
+      <c r="C120" s="15">
         <v>36385492</v>
       </c>
       <c r="D120" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E120" s="18" t="s">
-        <v>152</v>
+      <c r="E120" s="17" t="s">
+        <v>151</v>
       </c>
       <c r="F120" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4262,23 +4315,23 @@
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="B121" s="16">
+      <c r="B121" s="15">
         <v>317</v>
       </c>
-      <c r="C121" s="16">
+      <c r="C121" s="15">
         <v>44803401</v>
       </c>
       <c r="D121" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E121" s="17" t="s">
-        <v>154</v>
+      <c r="E121" s="16" t="s">
+        <v>153</v>
       </c>
       <c r="F121" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4286,23 +4339,23 @@
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="B122" s="16">
+      <c r="B122" s="15">
         <v>332</v>
       </c>
-      <c r="C122" s="16">
+      <c r="C122" s="15">
         <v>48108791</v>
       </c>
       <c r="D122" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E122" s="17" t="s">
-        <v>156</v>
+      <c r="E122" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="F122" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4310,23 +4363,23 @@
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="B123" s="16">
+      <c r="B123" s="15">
         <v>350</v>
       </c>
-      <c r="C123" s="16">
+      <c r="C123" s="15">
         <v>612758</v>
       </c>
       <c r="D123" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E123" s="17" t="s">
-        <v>158</v>
+      <c r="E123" s="16" t="s">
+        <v>157</v>
       </c>
       <c r="F123" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4334,23 +4387,23 @@
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="B124" s="16">
+      <c r="B124" s="15">
         <v>367</v>
       </c>
-      <c r="C124" s="16">
+      <c r="C124" s="15">
         <v>31444253</v>
       </c>
       <c r="D124" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E124" s="17" t="s">
-        <v>160</v>
+      <c r="E124" s="16" t="s">
+        <v>159</v>
       </c>
       <c r="F124" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4358,23 +4411,23 @@
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="B125" s="16">
+      <c r="B125" s="15">
         <v>368</v>
       </c>
-      <c r="C125" s="16">
+      <c r="C125" s="15">
         <v>31415261</v>
       </c>
       <c r="D125" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E125" s="17" t="s">
-        <v>162</v>
+      <c r="E125" s="16" t="s">
+        <v>161</v>
       </c>
       <c r="F125" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4382,23 +4435,23 @@
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="B126" s="16">
+      <c r="B126" s="15">
         <v>369</v>
       </c>
-      <c r="C126" s="16">
+      <c r="C126" s="15">
         <v>43818030</v>
       </c>
       <c r="D126" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E126" s="17" t="s">
-        <v>164</v>
+      <c r="E126" s="16" t="s">
+        <v>163</v>
       </c>
       <c r="F126" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4406,23 +4459,23 @@
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="B127" s="16">
+      <c r="B127" s="15">
         <v>373</v>
       </c>
-      <c r="C127" s="16">
+      <c r="C127" s="15">
         <v>36526606</v>
       </c>
       <c r="D127" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E127" s="17" t="s">
-        <v>166</v>
+      <c r="E127" s="16" t="s">
+        <v>165</v>
       </c>
       <c r="F127" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4430,23 +4483,23 @@
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="B128" s="16">
+      <c r="B128" s="15">
         <v>380</v>
       </c>
-      <c r="C128" s="16">
+      <c r="C128" s="15">
         <v>44295588</v>
       </c>
       <c r="D128" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E128" s="17" t="s">
-        <v>168</v>
+      <c r="E128" s="16" t="s">
+        <v>167</v>
       </c>
       <c r="F128" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4454,23 +4507,23 @@
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="B129" s="16">
+      <c r="B129" s="15">
         <v>382</v>
       </c>
-      <c r="C129" s="16">
+      <c r="C129" s="15">
         <v>36462110</v>
       </c>
       <c r="D129" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E129" s="17" t="s">
-        <v>170</v>
+      <c r="E129" s="16" t="s">
+        <v>169</v>
       </c>
       <c r="F129" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4478,23 +4531,23 @@
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="B130" s="16">
+      <c r="B130" s="15">
         <v>389</v>
       </c>
-      <c r="C130" s="16">
+      <c r="C130" s="15">
         <v>44966873</v>
       </c>
       <c r="D130" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E130" s="17" t="s">
-        <v>172</v>
+      <c r="E130" s="16" t="s">
+        <v>171</v>
       </c>
       <c r="F130" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4502,23 +4555,23 @@
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="B131" s="16">
+      <c r="B131" s="15">
         <v>390</v>
       </c>
-      <c r="C131" s="16">
+      <c r="C131" s="15">
         <v>691542</v>
       </c>
       <c r="D131" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E131" s="18" t="s">
-        <v>174</v>
+      <c r="E131" s="17" t="s">
+        <v>173</v>
       </c>
       <c r="F131" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4526,23 +4579,23 @@
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="B132" s="16">
+      <c r="B132" s="15">
         <v>452</v>
       </c>
-      <c r="C132" s="16">
+      <c r="C132" s="15">
         <v>31351611</v>
       </c>
       <c r="D132" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E132" s="17" t="s">
-        <v>176</v>
+      <c r="E132" s="16" t="s">
+        <v>175</v>
       </c>
       <c r="F132" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4550,23 +4603,23 @@
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="B133" s="16">
+      <c r="B133" s="15">
         <v>481</v>
       </c>
-      <c r="C133" s="16">
+      <c r="C133" s="15">
         <v>697591</v>
       </c>
       <c r="D133" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E133" s="17" t="s">
-        <v>178</v>
+      <c r="E133" s="16" t="s">
+        <v>177</v>
       </c>
       <c r="F133" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -4574,23 +4627,23 @@
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
-      <c r="B134" s="16">
+      <c r="B134" s="15">
         <v>482</v>
       </c>
-      <c r="C134" s="16">
+      <c r="C134" s="15">
         <v>30228042</v>
       </c>
       <c r="D134" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E134" s="17" t="s">
-        <v>180</v>
+      <c r="E134" s="16" t="s">
+        <v>179</v>
       </c>
       <c r="F134" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -4598,23 +4651,23 @@
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="B135" s="16">
+      <c r="B135" s="15">
         <v>501</v>
       </c>
-      <c r="C135" s="16">
+      <c r="C135" s="15">
         <v>36270806</v>
       </c>
       <c r="D135" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E135" s="19" t="s">
-        <v>182</v>
+      <c r="E135" s="18" t="s">
+        <v>181</v>
       </c>
       <c r="F135" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4622,23 +4675,23 @@
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="B136" s="16">
+      <c r="B136" s="15">
         <v>506</v>
       </c>
-      <c r="C136" s="16">
+      <c r="C136" s="15">
         <v>31571778</v>
       </c>
       <c r="D136" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E136" s="17" t="s">
-        <v>184</v>
+      <c r="E136" s="16" t="s">
+        <v>183</v>
       </c>
       <c r="F136" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4646,23 +4699,23 @@
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="B137" s="16">
+      <c r="B137" s="15">
         <v>510</v>
       </c>
-      <c r="C137" s="16">
+      <c r="C137" s="15">
         <v>35809078</v>
       </c>
       <c r="D137" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E137" s="17" t="s">
-        <v>186</v>
+      <c r="E137" s="16" t="s">
+        <v>185</v>
       </c>
       <c r="F137" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4670,23 +4723,23 @@
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="B138" s="16">
+      <c r="B138" s="15">
         <v>516</v>
       </c>
-      <c r="C138" s="16">
+      <c r="C138" s="15">
         <v>31641458</v>
       </c>
       <c r="D138" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E138" s="20" t="s">
-        <v>188</v>
+      <c r="E138" s="19" t="s">
+        <v>187</v>
       </c>
       <c r="F138" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4694,23 +4747,23 @@
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="B139" s="16">
+      <c r="B139" s="15">
         <v>519</v>
       </c>
-      <c r="C139" s="16">
+      <c r="C139" s="15">
         <v>693847</v>
       </c>
       <c r="D139" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E139" s="17" t="s">
-        <v>190</v>
+      <c r="E139" s="16" t="s">
+        <v>189</v>
       </c>
       <c r="F139" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4718,23 +4771,23 @@
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="B140" s="16">
+      <c r="B140" s="15">
         <v>522</v>
       </c>
-      <c r="C140" s="16">
+      <c r="C140" s="15">
         <v>36224260</v>
       </c>
       <c r="D140" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E140" s="17" t="s">
-        <v>192</v>
+      <c r="E140" s="16" t="s">
+        <v>191</v>
       </c>
       <c r="F140" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4742,23 +4795,23 @@
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
-      <c r="B141" s="16">
+      <c r="B141" s="15">
         <v>542</v>
       </c>
-      <c r="C141" s="16">
+      <c r="C141" s="15">
         <v>41751477</v>
       </c>
       <c r="D141" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E141" s="17" t="s">
-        <v>196</v>
+      <c r="E141" s="16" t="s">
+        <v>195</v>
       </c>
       <c r="F141" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4766,23 +4819,23 @@
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="B142" s="16">
+      <c r="B142" s="15">
         <v>544</v>
       </c>
-      <c r="C142" s="16">
+      <c r="C142" s="15">
         <v>36550302</v>
       </c>
       <c r="D142" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E142" s="17" t="s">
-        <v>198</v>
+      <c r="E142" s="16" t="s">
+        <v>197</v>
       </c>
       <c r="F142" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G142" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4790,23 +4843,23 @@
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="B143" s="16">
+      <c r="B143" s="15">
         <v>545</v>
       </c>
-      <c r="C143" s="16">
+      <c r="C143" s="15">
         <v>36534668</v>
       </c>
       <c r="D143" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E143" s="17" t="s">
-        <v>200</v>
+      <c r="E143" s="16" t="s">
+        <v>199</v>
       </c>
       <c r="F143" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G143" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4814,244 +4867,244 @@
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="B144" s="16">
+      <c r="B144" s="15">
         <v>550</v>
       </c>
-      <c r="C144" s="16">
+      <c r="C144" s="15">
         <v>43883907</v>
       </c>
       <c r="D144" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E144" s="17" t="s">
-        <v>202</v>
+      <c r="E144" s="16" t="s">
+        <v>201</v>
       </c>
       <c r="F144" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G144" s="6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A145" s="6">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="B145" s="16">
+      <c r="B145" s="15">
         <v>552</v>
       </c>
-      <c r="C145" s="16">
+      <c r="C145" s="15">
         <v>44325851</v>
       </c>
       <c r="D145" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E145" s="18" t="s">
-        <v>204</v>
+      <c r="E145" s="17" t="s">
+        <v>203</v>
       </c>
       <c r="F145" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G145" s="6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A146" s="6">
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="B146" s="16">
+      <c r="B146" s="15">
         <v>558</v>
       </c>
-      <c r="C146" s="16">
+      <c r="C146" s="15">
         <v>46940553</v>
       </c>
       <c r="D146" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E146" s="17" t="s">
-        <v>206</v>
+      <c r="E146" s="16" t="s">
+        <v>205</v>
       </c>
       <c r="F146" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G146" s="6" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A147" s="6">
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
-      <c r="B147" s="16">
+      <c r="B147" s="15">
         <v>565</v>
       </c>
-      <c r="C147" s="16">
+      <c r="C147" s="15">
         <v>45354618</v>
       </c>
       <c r="D147" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E147" s="17" t="s">
-        <v>208</v>
+      <c r="E147" s="16" t="s">
+        <v>207</v>
       </c>
       <c r="F147" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G147" s="6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A148" s="6">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="B148" s="16">
+      <c r="B148" s="15">
         <v>571</v>
       </c>
-      <c r="C148" s="16">
+      <c r="C148" s="15">
         <v>36501921</v>
       </c>
       <c r="D148" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E148" s="18" t="s">
-        <v>210</v>
+      <c r="E148" s="17" t="s">
+        <v>209</v>
       </c>
       <c r="F148" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A149" s="6">
         <f t="shared" si="3"/>
         <v>46</v>
       </c>
-      <c r="B149" s="16">
+      <c r="B149" s="15">
         <v>573</v>
       </c>
-      <c r="C149" s="16">
+      <c r="C149" s="15">
         <v>45304726</v>
       </c>
       <c r="D149" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E149" s="18" t="s">
-        <v>212</v>
+      <c r="E149" s="17" t="s">
+        <v>211</v>
       </c>
       <c r="F149" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A150" s="6">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="B150" s="16">
+      <c r="B150" s="15">
         <v>577</v>
       </c>
-      <c r="C150" s="16">
+      <c r="C150" s="15">
         <v>31640265</v>
       </c>
       <c r="D150" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E150" s="18" t="s">
-        <v>214</v>
+      <c r="E150" s="17" t="s">
+        <v>213</v>
       </c>
       <c r="F150" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G150" s="6" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A151" s="6">
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
-      <c r="B151" s="16">
+      <c r="B151" s="15">
         <v>583</v>
       </c>
-      <c r="C151" s="16">
+      <c r="C151" s="15">
         <v>36671134</v>
       </c>
       <c r="D151" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E151" s="17" t="s">
-        <v>216</v>
+      <c r="E151" s="16" t="s">
+        <v>215</v>
       </c>
       <c r="F151" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G151" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A152" s="6">
         <f t="shared" si="3"/>
         <v>49</v>
       </c>
-      <c r="B152" s="16">
+      <c r="B152" s="15">
         <v>588</v>
       </c>
       <c r="C152" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E152" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="D152" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E152" s="18" t="s">
-        <v>219</v>
-      </c>
       <c r="F152" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G152" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A153" s="6">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="B153" s="16">
+      <c r="B153" s="15">
         <v>593</v>
       </c>
-      <c r="C153" s="16">
+      <c r="C153" s="15">
         <v>31408451</v>
       </c>
       <c r="D153" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E153" s="17" t="s">
-        <v>221</v>
+      <c r="E153" s="16" t="s">
+        <v>220</v>
       </c>
       <c r="F153" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G153" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" s="23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B154" s="23"/>
       <c r="C154" s="23"/>
@@ -5060,111 +5113,141 @@
       <c r="F154" s="23"/>
       <c r="G154" s="23"/>
     </row>
-    <row r="155" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A155" s="6">
         <v>1</v>
       </c>
-      <c r="B155" s="16">
+      <c r="B155" s="15">
         <v>1703</v>
       </c>
-      <c r="C155" s="16">
+      <c r="C155" s="15">
         <v>35908700</v>
       </c>
-      <c r="D155" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E155" s="17" t="s">
-        <v>272</v>
+      <c r="D155" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E155" s="16" t="s">
+        <v>271</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G155" s="22" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="G155" s="21" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A156">
         <f>A155+1</f>
         <v>2</v>
       </c>
-      <c r="B156" s="16">
+      <c r="B156" s="15">
         <v>2687</v>
       </c>
-      <c r="C156" s="16">
+      <c r="C156" s="15">
         <v>36245895</v>
       </c>
-      <c r="D156" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E156" s="18" t="s">
-        <v>316</v>
+      <c r="D156" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E156" s="17" t="s">
+        <v>315</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G156" s="22" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G156" s="21" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A157">
         <f t="shared" ref="A157:A204" si="4">A156+1</f>
         <v>3</v>
       </c>
-      <c r="D157" s="22" t="s">
-        <v>5</v>
+      <c r="B157" s="15">
+        <v>2946</v>
+      </c>
+      <c r="C157" s="15">
+        <v>36719170</v>
+      </c>
+      <c r="D157" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E157" s="16" t="s">
+        <v>325</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G157" s="22" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G157" s="21" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A158">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="D158" s="22" t="s">
-        <v>5</v>
+      <c r="B158" s="15">
+        <v>3055</v>
+      </c>
+      <c r="C158" s="15">
+        <v>36311693</v>
+      </c>
+      <c r="D158" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E158" s="16" t="s">
+        <v>329</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G158" s="22" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G158" s="21" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A159">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="D159" s="22" t="s">
-        <v>5</v>
+      <c r="B159" s="15">
+        <v>3291</v>
+      </c>
+      <c r="C159" s="15">
+        <v>31409911</v>
+      </c>
+      <c r="D159" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E159" s="17" t="s">
+        <v>333</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G159" s="22" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G159" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="L159" s="15" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="D160" s="22" t="s">
+      <c r="D160" s="21" t="s">
         <v>5</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G160" s="22" t="s">
-        <v>270</v>
+      <c r="G160" s="21" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
@@ -5172,14 +5255,14 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="D161" s="22" t="s">
+      <c r="D161" s="21" t="s">
         <v>5</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G161" s="22" t="s">
-        <v>270</v>
+      <c r="G161" s="21" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
@@ -5187,14 +5270,14 @@
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="D162" s="22" t="s">
+      <c r="D162" s="21" t="s">
         <v>5</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G162" s="22" t="s">
-        <v>270</v>
+      <c r="G162" s="21" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
@@ -5202,14 +5285,14 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="D163" s="22" t="s">
+      <c r="D163" s="21" t="s">
         <v>5</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G163" s="22" t="s">
-        <v>270</v>
+      <c r="G163" s="21" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
@@ -5217,14 +5300,14 @@
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="D164" s="22" t="s">
+      <c r="D164" s="21" t="s">
         <v>5</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G164" s="22" t="s">
-        <v>270</v>
+      <c r="G164" s="21" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
@@ -5232,14 +5315,14 @@
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="D165" s="22" t="s">
+      <c r="D165" s="21" t="s">
         <v>5</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G165" s="22" t="s">
-        <v>270</v>
+      <c r="G165" s="21" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
@@ -5247,14 +5330,14 @@
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="D166" s="22" t="s">
+      <c r="D166" s="21" t="s">
         <v>5</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G166" s="22" t="s">
-        <v>270</v>
+      <c r="G166" s="21" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
@@ -5262,14 +5345,14 @@
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="D167" s="22" t="s">
+      <c r="D167" s="21" t="s">
         <v>5</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G167" s="22" t="s">
-        <v>270</v>
+      <c r="G167" s="21" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
@@ -5277,14 +5360,14 @@
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="D168" s="22" t="s">
+      <c r="D168" s="21" t="s">
         <v>5</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G168" s="22" t="s">
-        <v>270</v>
+      <c r="G168" s="21" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
@@ -5292,14 +5375,14 @@
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="D169" s="22" t="s">
+      <c r="D169" s="21" t="s">
         <v>5</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G169" s="22" t="s">
-        <v>270</v>
+      <c r="G169" s="21" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
@@ -5307,14 +5390,14 @@
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="D170" s="22" t="s">
+      <c r="D170" s="21" t="s">
         <v>5</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G170" s="22" t="s">
-        <v>270</v>
+      <c r="G170" s="21" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
@@ -5322,14 +5405,14 @@
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="D171" s="22" t="s">
+      <c r="D171" s="21" t="s">
         <v>5</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G171" s="22" t="s">
-        <v>270</v>
+      <c r="G171" s="21" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
@@ -5337,14 +5420,14 @@
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="D172" s="22" t="s">
+      <c r="D172" s="21" t="s">
         <v>5</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G172" s="22" t="s">
-        <v>270</v>
+      <c r="G172" s="21" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
@@ -5352,14 +5435,14 @@
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="D173" s="22" t="s">
+      <c r="D173" s="21" t="s">
         <v>5</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G173" s="22" t="s">
-        <v>270</v>
+      <c r="G173" s="21" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
@@ -5367,14 +5450,14 @@
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="D174" s="22" t="s">
+      <c r="D174" s="21" t="s">
         <v>5</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G174" s="22" t="s">
-        <v>270</v>
+      <c r="G174" s="21" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
@@ -5382,14 +5465,14 @@
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="D175" s="22" t="s">
+      <c r="D175" s="21" t="s">
         <v>5</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G175" s="22" t="s">
-        <v>270</v>
+      <c r="G175" s="21" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
@@ -5397,14 +5480,14 @@
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="D176" s="22" t="s">
+      <c r="D176" s="21" t="s">
         <v>5</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G176" s="22" t="s">
-        <v>270</v>
+      <c r="G176" s="21" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
@@ -5412,14 +5495,14 @@
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="D177" s="22" t="s">
+      <c r="D177" s="21" t="s">
         <v>5</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G177" s="22" t="s">
-        <v>270</v>
+      <c r="G177" s="21" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
@@ -5427,14 +5510,14 @@
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="D178" s="22" t="s">
+      <c r="D178" s="21" t="s">
         <v>5</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G178" s="22" t="s">
-        <v>270</v>
+      <c r="G178" s="21" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
@@ -5442,14 +5525,14 @@
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="D179" s="22" t="s">
+      <c r="D179" s="21" t="s">
         <v>5</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G179" s="22" t="s">
-        <v>270</v>
+      <c r="G179" s="21" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
@@ -5457,14 +5540,14 @@
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="D180" s="22" t="s">
+      <c r="D180" s="21" t="s">
         <v>5</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G180" s="22" t="s">
-        <v>270</v>
+      <c r="G180" s="21" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
@@ -5472,14 +5555,14 @@
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="D181" s="22" t="s">
+      <c r="D181" s="21" t="s">
         <v>5</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G181" s="22" t="s">
-        <v>270</v>
+      <c r="G181" s="21" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
@@ -5487,14 +5570,14 @@
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="D182" s="22" t="s">
+      <c r="D182" s="21" t="s">
         <v>5</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G182" s="22" t="s">
-        <v>270</v>
+      <c r="G182" s="21" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
@@ -5502,14 +5585,14 @@
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="D183" s="22" t="s">
+      <c r="D183" s="21" t="s">
         <v>5</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G183" s="22" t="s">
-        <v>270</v>
+      <c r="G183" s="21" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
@@ -5517,14 +5600,14 @@
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="D184" s="22" t="s">
+      <c r="D184" s="21" t="s">
         <v>5</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G184" s="22" t="s">
-        <v>270</v>
+      <c r="G184" s="21" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
@@ -5532,14 +5615,14 @@
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="D185" s="22" t="s">
+      <c r="D185" s="21" t="s">
         <v>5</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G185" s="22" t="s">
-        <v>270</v>
+      <c r="G185" s="21" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
@@ -5547,14 +5630,14 @@
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="D186" s="22" t="s">
+      <c r="D186" s="21" t="s">
         <v>5</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G186" s="22" t="s">
-        <v>270</v>
+      <c r="G186" s="21" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
@@ -5562,14 +5645,14 @@
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
-      <c r="D187" s="22" t="s">
+      <c r="D187" s="21" t="s">
         <v>5</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G187" s="22" t="s">
-        <v>270</v>
+      <c r="G187" s="21" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
@@ -5577,14 +5660,14 @@
         <f>A187+1</f>
         <v>34</v>
       </c>
-      <c r="D188" s="22" t="s">
+      <c r="D188" s="21" t="s">
         <v>5</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G188" s="22" t="s">
-        <v>270</v>
+      <c r="G188" s="21" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
@@ -5592,14 +5675,14 @@
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="D189" s="22" t="s">
+      <c r="D189" s="21" t="s">
         <v>5</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G189" s="22" t="s">
-        <v>270</v>
+      <c r="G189" s="21" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
@@ -5607,14 +5690,14 @@
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
-      <c r="D190" s="22" t="s">
+      <c r="D190" s="21" t="s">
         <v>5</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G190" s="22" t="s">
-        <v>270</v>
+      <c r="G190" s="21" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
@@ -5622,14 +5705,14 @@
         <f t="shared" si="4"/>
         <v>37</v>
       </c>
-      <c r="D191" s="22" t="s">
+      <c r="D191" s="21" t="s">
         <v>5</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G191" s="22" t="s">
-        <v>270</v>
+      <c r="G191" s="21" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
@@ -5637,204 +5720,210 @@
         <f t="shared" si="4"/>
         <v>38</v>
       </c>
-      <c r="D192" s="22" t="s">
+      <c r="D192" s="21" t="s">
         <v>5</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G192" s="22" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G192" s="21" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193">
         <f t="shared" si="4"/>
         <v>39</v>
       </c>
-      <c r="D193" s="22" t="s">
+      <c r="D193" s="21" t="s">
         <v>5</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G193" s="22" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G193" s="21" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194">
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="D194" s="22" t="s">
+      <c r="D194" s="21" t="s">
         <v>5</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G194" s="22" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G194" s="21" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195">
         <f t="shared" si="4"/>
         <v>41</v>
       </c>
-      <c r="D195" s="22" t="s">
+      <c r="D195" s="21" t="s">
         <v>5</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G195" s="22" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G195" s="21" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A196">
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
-      <c r="D196" s="22" t="s">
+      <c r="D196" s="21" t="s">
         <v>5</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G196" s="22" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G196" s="21" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A197">
         <f t="shared" si="4"/>
         <v>43</v>
       </c>
-      <c r="D197" s="22" t="s">
+      <c r="D197" s="21" t="s">
         <v>5</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G197" s="22" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G197" s="21" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A198">
         <f t="shared" si="4"/>
         <v>44</v>
       </c>
-      <c r="D198" s="22" t="s">
+      <c r="D198" s="21" t="s">
         <v>5</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G198" s="22" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G198" s="21" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A199">
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
-      <c r="D199" s="22" t="s">
+      <c r="D199" s="21" t="s">
         <v>5</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G199" s="22" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G199" s="21" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A200">
         <f t="shared" si="4"/>
         <v>46</v>
       </c>
-      <c r="D200" s="22" t="s">
+      <c r="D200" s="21" t="s">
         <v>5</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G200" s="22" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G200" s="21" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A201">
         <f t="shared" si="4"/>
         <v>47</v>
       </c>
-      <c r="D201" s="22" t="s">
+      <c r="D201" s="21" t="s">
         <v>5</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G201" s="22" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G201" s="21" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A202">
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
-      <c r="D202" s="22" t="s">
+      <c r="D202" s="21" t="s">
         <v>5</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G202" s="22" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G202" s="21" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A203">
         <f t="shared" si="4"/>
         <v>49</v>
       </c>
-      <c r="D203" s="22" t="s">
+      <c r="D203" s="21" t="s">
         <v>5</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G203" s="22" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G203" s="21" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A204">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="D204" s="22" t="s">
+      <c r="D204" s="21" t="s">
         <v>5</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G204" s="22" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G204" s="21" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
+        <v>299</v>
+      </c>
+      <c r="L206" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A207" t="s">
-        <v>301</v>
+      <c r="L207" t="s">
+        <v>331</v>
       </c>
     </row>
   </sheetData>

--- a/Dataset/list.xlsx
+++ b/Dataset/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FMFI\1. semester\Bakalárka\na_git\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C9C138-C3BA-4589-9379-B67B706252E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA4D17D-E957-41EB-84E6-DD59B091E4DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="347">
   <si>
     <t>Číslo vložky</t>
   </si>
@@ -1029,7 +1029,43 @@
     <t>Ing. Karol Vanko, Ing. Peter Duchovič, Ing. Ján Kysucký</t>
   </si>
   <si>
-    <t>po 3321</t>
+    <t>test_statutar\106431.pdf</t>
+  </si>
+  <si>
+    <t>Peter Pillaj, František Refka</t>
+  </si>
+  <si>
+    <t>test_statutar\114158.pdf</t>
+  </si>
+  <si>
+    <t>Ing. Ondrej Borguľa, Fabian Grimme BSc., JUDr. Marica Koreňová</t>
+  </si>
+  <si>
+    <t>test_statutar\101068.pdf</t>
+  </si>
+  <si>
+    <t>RNDr. Viktória Procházková, Przemyslaw Wojciech Brozyna</t>
+  </si>
+  <si>
+    <t>test_statutar\86080.pdf</t>
+  </si>
+  <si>
+    <t>Ing. Jozef Petráš, Rastislav Caletka</t>
+  </si>
+  <si>
+    <t>test_statutar\87885.pdf</t>
+  </si>
+  <si>
+    <t>Jaroslaw Lange, Daniela Andrei, Dirk Karsten Peter Schlüter</t>
+  </si>
+  <si>
+    <t>test_statutar\86349.pdf</t>
+  </si>
+  <si>
+    <t>Ing. Ján Pika, Ivan Orovčík, Ing. Igor Mišech, Mgr. Marianna Jankovičová</t>
+  </si>
+  <si>
+    <t>po 3912</t>
   </si>
 </sst>
 </file>
@@ -1437,7 +1473,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L160" sqref="L160"/>
+      <selection pane="bottomLeft" activeCell="R158" sqref="R158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5232,97 +5268,151 @@
         <v>332</v>
       </c>
       <c r="L159" s="15" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A160">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
+      <c r="B160" s="15">
+        <v>3490</v>
+      </c>
+      <c r="C160" s="15">
+        <v>36567761</v>
+      </c>
       <c r="D160" s="21" t="s">
         <v>5</v>
       </c>
+      <c r="E160" s="17" t="s">
+        <v>335</v>
+      </c>
       <c r="F160" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G160" s="21" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A161">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
+      <c r="B161" s="15">
+        <v>3554</v>
+      </c>
+      <c r="C161" s="15">
+        <v>36024473</v>
+      </c>
       <c r="D161" s="21" t="s">
         <v>5</v>
       </c>
+      <c r="E161" s="17" t="s">
+        <v>337</v>
+      </c>
       <c r="F161" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G161" s="21" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A162">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
+      <c r="B162" s="15">
+        <v>3561</v>
+      </c>
+      <c r="C162" s="15">
+        <v>48001708</v>
+      </c>
       <c r="D162" s="21" t="s">
         <v>5</v>
       </c>
+      <c r="E162" s="16" t="s">
+        <v>339</v>
+      </c>
       <c r="F162" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G162" s="21" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A163">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
+      <c r="B163" s="15">
+        <v>3619</v>
+      </c>
+      <c r="C163" s="15">
+        <v>43893104</v>
+      </c>
       <c r="D163" s="21" t="s">
         <v>5</v>
       </c>
+      <c r="E163" s="16" t="s">
+        <v>341</v>
+      </c>
       <c r="F163" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G163" s="21" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A164">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
+      <c r="B164" s="15">
+        <v>3814</v>
+      </c>
+      <c r="C164" s="15">
+        <v>29280095</v>
+      </c>
       <c r="D164" s="21" t="s">
         <v>5</v>
       </c>
+      <c r="E164" s="17" t="s">
+        <v>343</v>
+      </c>
       <c r="F164" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G164" s="21" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A165">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
+      <c r="B165" s="15">
+        <v>3834</v>
+      </c>
+      <c r="C165" s="15">
+        <v>31577156</v>
+      </c>
       <c r="D165" s="21" t="s">
         <v>5</v>
       </c>
+      <c r="E165" s="17" t="s">
+        <v>345</v>
+      </c>
       <c r="F165" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G165" s="21" t="s">
-        <v>269</v>
+        <v>344</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">

--- a/Dataset/list.xlsx
+++ b/Dataset/list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FMFI\1. semester\Bakalárka\na_git\Dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FMFI\Bakalárka\na_git\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA4D17D-E957-41EB-84E6-DD59B091E4DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D8DCEF-679E-4D25-B024-537528ABFEF0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8148" yWindow="876" windowWidth="14076" windowHeight="11484" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hárok1" sheetId="1" r:id="rId1"/>
@@ -1065,7 +1065,7 @@
     <t>Ing. Ján Pika, Ivan Orovčík, Ing. Igor Mišech, Mgr. Marianna Jankovičová</t>
   </si>
   <si>
-    <t>po 3912</t>
+    <t>po 3942</t>
   </si>
 </sst>
 </file>
@@ -1471,9 +1471,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P207"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R158" sqref="R158"/>
+      <selection pane="bottomLeft" activeCell="L160" sqref="L160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Dataset/list.xlsx
+++ b/Dataset/list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FMFI\Bakalárka\na_git\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D8DCEF-679E-4D25-B024-537528ABFEF0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20849694-8004-4339-A07A-AD49F2235C55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8148" yWindow="876" windowWidth="14076" windowHeight="11484" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hárok1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="359">
   <si>
     <t>Číslo vložky</t>
   </si>
@@ -1065,7 +1065,43 @@
     <t>Ing. Ján Pika, Ivan Orovčík, Ing. Igor Mišech, Mgr. Marianna Jankovičová</t>
   </si>
   <si>
-    <t>po 3942</t>
+    <t>test_statutar\116559.pdf</t>
+  </si>
+  <si>
+    <t>Ing. Eduard Šebők, Ing. Ján Šoltés</t>
+  </si>
+  <si>
+    <t>// trochu blbý príklad, zistiť čo to je mi trvalo asi 5 minút...</t>
+  </si>
+  <si>
+    <t>test_statutar\103895.pdf</t>
+  </si>
+  <si>
+    <t>prof. Ing. Jozef Jandačka PhD.</t>
+  </si>
+  <si>
+    <t>test_statutar\121592.pdf</t>
+  </si>
+  <si>
+    <t>Ing. Ján Brunner, Fabian Grimme BSc.</t>
+  </si>
+  <si>
+    <t>test_statutar\97884.pdf</t>
+  </si>
+  <si>
+    <t>Ing. Ondrej Borguľa, JUDr. Ing. Eva Kolláriková PhD. MBA</t>
+  </si>
+  <si>
+    <t>test_statutar\125829.pdf</t>
+  </si>
+  <si>
+    <t>Monika Grendelová, Franck Frayer</t>
+  </si>
+  <si>
+    <t>test_statutar\97074.pdf</t>
+  </si>
+  <si>
+    <t>po 4317</t>
   </si>
 </sst>
 </file>
@@ -1471,9 +1507,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L160" sqref="L160"/>
+      <selection pane="bottomLeft" activeCell="Q169" sqref="Q169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5268,7 +5304,7 @@
         <v>332</v>
       </c>
       <c r="L159" s="15" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="160" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5295,7 +5331,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A161">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -5319,7 +5355,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A162">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -5343,7 +5379,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A163">
         <f t="shared" si="4"/>
         <v>9</v>
@@ -5367,7 +5403,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A164">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -5391,7 +5427,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A165">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -5415,86 +5451,140 @@
         <v>344</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A166">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
+      <c r="B166" s="15">
+        <v>4142</v>
+      </c>
+      <c r="C166" s="15">
+        <v>30223806</v>
+      </c>
       <c r="D166" s="21" t="s">
         <v>5</v>
       </c>
+      <c r="E166" s="17" t="s">
+        <v>347</v>
+      </c>
       <c r="F166" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G166" s="21" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+        <v>346</v>
+      </c>
+      <c r="K166" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A167">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
+      <c r="B167" s="15">
+        <v>4160</v>
+      </c>
+      <c r="C167" s="15">
+        <v>397563</v>
+      </c>
       <c r="D167" s="21" t="s">
         <v>5</v>
       </c>
+      <c r="E167" s="16" t="s">
+        <v>350</v>
+      </c>
       <c r="F167" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G167" s="21" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A168">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
+      <c r="B168" s="15">
+        <v>4190</v>
+      </c>
+      <c r="C168" s="15">
+        <v>35889080</v>
+      </c>
       <c r="D168" s="21" t="s">
         <v>5</v>
       </c>
+      <c r="E168" s="17" t="s">
+        <v>352</v>
+      </c>
       <c r="F168" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G168" s="21" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A169">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
+      <c r="B169" s="15">
+        <v>4202</v>
+      </c>
+      <c r="C169" s="15">
+        <v>36277215</v>
+      </c>
       <c r="D169" s="21" t="s">
         <v>5</v>
       </c>
+      <c r="E169" s="17" t="s">
+        <v>354</v>
+      </c>
       <c r="F169" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G169" s="21" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A170">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
+      <c r="B170" s="15">
+        <v>4222</v>
+      </c>
+      <c r="C170" s="15">
+        <v>35774738</v>
+      </c>
       <c r="D170" s="21" t="s">
         <v>5</v>
       </c>
+      <c r="E170" s="17" t="s">
+        <v>356</v>
+      </c>
       <c r="F170" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G170" s="21" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A171">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
+      <c r="B171" s="15">
+        <v>4298</v>
+      </c>
+      <c r="C171" s="15">
+        <v>44750498</v>
+      </c>
       <c r="D171" s="21" t="s">
         <v>5</v>
       </c>
@@ -5502,10 +5592,10 @@
         <v>41</v>
       </c>
       <c r="G171" s="21" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172">
         <f t="shared" si="4"/>
         <v>18</v>
@@ -5520,7 +5610,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173">
         <f t="shared" si="4"/>
         <v>19</v>
@@ -5535,7 +5625,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174">
         <f t="shared" si="4"/>
         <v>20</v>
@@ -5550,7 +5640,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175">
         <f t="shared" si="4"/>
         <v>21</v>
@@ -5565,7 +5655,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176">
         <f t="shared" si="4"/>
         <v>22</v>

--- a/Dataset/list.xlsx
+++ b/Dataset/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FMFI\Bakalárka\na_git\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20849694-8004-4339-A07A-AD49F2235C55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE52C12-1570-4BF9-859D-620147FFF1D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="361">
   <si>
     <t>Číslo vložky</t>
   </si>
@@ -1102,6 +1102,12 @@
   </si>
   <si>
     <t>po 4317</t>
+  </si>
+  <si>
+    <t>vymazať - nie je štatutár</t>
+  </si>
+  <si>
+    <t>vymazať - nie je štatutár, keďže Sečka skutočne ovláda a kontroluje ...</t>
   </si>
 </sst>
 </file>
@@ -1508,8 +1514,8 @@
   <dimension ref="A1:P207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q169" sqref="Q169"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I86" sqref="I86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3480,6 +3486,9 @@
       <c r="G82" s="6" t="s">
         <v>278</v>
       </c>
+      <c r="I82" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="83" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A83" s="6">
@@ -3552,6 +3561,9 @@
       <c r="G85" s="6" t="s">
         <v>284</v>
       </c>
+      <c r="I85" t="s">
+        <v>360</v>
+      </c>
       <c r="L85" t="s">
         <v>294</v>
       </c>
@@ -3626,6 +3638,9 @@
       </c>
       <c r="G88" s="6" t="s">
         <v>291</v>
+      </c>
+      <c r="I88" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">

--- a/Dataset/list.xlsx
+++ b/Dataset/list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FMFI\Bakalárka\na_git\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE52C12-1570-4BF9-859D-620147FFF1D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F4600E-A650-48EE-AAA9-21E70DA156C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hárok1" sheetId="1" r:id="rId1"/>
@@ -1514,8 +1514,8 @@
   <dimension ref="A1:P207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I86" sqref="I86"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Dataset/list.xlsx
+++ b/Dataset/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FMFI\Bakalárka\na_git\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F4600E-A650-48EE-AAA9-21E70DA156C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D40F92-1423-49B5-9BDC-CFE45C9D60D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="353">
   <si>
     <t>Číslo vložky</t>
   </si>
@@ -861,12 +861,6 @@
     <t>Andreas Jozef Brun, Teemu Tapani Airaksinen</t>
   </si>
   <si>
-    <t>statutar\107830.pdf</t>
-  </si>
-  <si>
-    <t>Helena Maria Stjernholm, Erik A Elzvik, Jon Fredrick Baksaas, Jan Ove Mikael Carlson, Bo Kjell-Ȁke Soting, Inge Roger Svensson, Jacob Wallenberg, Erik Börje Ekholm, Nora Denzel, Kristin Sue Rinne, Carl Fredrik Harry Jejdling, Kurt Åke Jofs, Lars Erik Torbjörn Nyman, Ronnie Frans Ghislain Leten</t>
-  </si>
-  <si>
     <t>statutar\22455.pdf</t>
   </si>
   <si>
@@ -879,12 +873,6 @@
     <t>RNDr. Martin Ružinský PhD., Ing. Ján Horkovič, Ing. Milan Rác MBA, Ing. Marián Lokša, Ing. Peter Zelinka, Ing. Peter Ufnár, Ing. Katarína Vršanská, Ing. Ivan Bilohuščin</t>
   </si>
   <si>
-    <t>statutar\30031.pdf</t>
-  </si>
-  <si>
-    <t>ThDr. Štefan Sečka PhD.</t>
-  </si>
-  <si>
     <t>statutar\98669.pdf</t>
   </si>
   <si>
@@ -900,18 +888,12 @@
     <t>Jan Knyttl, Ing. Tomáš Belavý</t>
   </si>
   <si>
-    <t>statutar\18934.pdf</t>
-  </si>
-  <si>
     <t>statutar\38551.pdf</t>
   </si>
   <si>
     <t>Ing. Jindřich Frič Ph.D.</t>
   </si>
   <si>
-    <t>možno bude treba odstraniť tých, ktorý sú KUV podľa 6a ods. 1</t>
-  </si>
-  <si>
     <t>statutar\23053.pdf</t>
   </si>
   <si>
@@ -1102,12 +1084,6 @@
   </si>
   <si>
     <t>po 4317</t>
-  </si>
-  <si>
-    <t>vymazať - nie je štatutár</t>
-  </si>
-  <si>
-    <t>vymazať - nie je štatutár, keďže Sečka skutočne ovláda a kontroluje ...</t>
   </si>
 </sst>
 </file>
@@ -1513,9 +1489,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P207"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G60" sqref="G60"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K174" sqref="K174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3439,7 +3415,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A81" s="6">
         <f t="shared" si="2"/>
         <v>29</v>
@@ -3463,34 +3439,28 @@
         <v>276</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A82" s="6">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="B82" s="15">
-        <v>1945</v>
+        <v>4298</v>
       </c>
       <c r="C82" s="15">
-        <v>31344046</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E82" s="17" t="s">
-        <v>279</v>
-      </c>
-      <c r="F82" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G82" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="I82" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>44750498</v>
+      </c>
+      <c r="D82" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G82" s="21" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A83" s="6">
         <f t="shared" si="2"/>
         <v>31</v>
@@ -3505,16 +3475,16 @@
         <v>5</v>
       </c>
       <c r="E83" s="17" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F83" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A84" s="6">
         <f t="shared" si="2"/>
         <v>32</v>
@@ -3529,46 +3499,40 @@
         <v>5</v>
       </c>
       <c r="E84" s="17" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F84" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A85" s="6">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="B85" s="15">
-        <v>2136</v>
+        <v>4222</v>
       </c>
       <c r="C85" s="15">
-        <v>35514221</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E85" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="F85" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G85" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="I85" t="s">
-        <v>360</v>
-      </c>
-      <c r="L85" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>35774738</v>
+      </c>
+      <c r="D85" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E85" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G85" s="21" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A86" s="6">
         <f t="shared" si="2"/>
         <v>34</v>
@@ -3577,22 +3541,22 @@
         <v>2210</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E86" s="17" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F86" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A87" s="6">
         <f t="shared" si="2"/>
         <v>35</v>
@@ -3607,43 +3571,40 @@
         <v>5</v>
       </c>
       <c r="E87" s="17" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F87" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A88" s="6">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="B88" s="15">
-        <v>2308</v>
+        <v>4202</v>
       </c>
       <c r="C88" s="15">
-        <v>17083851</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E88" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="F88" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G88" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="I88" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>36277215</v>
+      </c>
+      <c r="D88" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E88" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G88" s="21" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A89" s="6">
         <f t="shared" si="2"/>
         <v>37</v>
@@ -3658,16 +3619,16 @@
         <v>5</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F89" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A90" s="6">
         <f t="shared" si="2"/>
         <v>38</v>
@@ -3682,16 +3643,16 @@
         <v>5</v>
       </c>
       <c r="E90" s="17" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F90" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A91" s="6">
         <f t="shared" si="2"/>
         <v>39</v>
@@ -3706,16 +3667,16 @@
         <v>5</v>
       </c>
       <c r="E91" s="17" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="F91" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A92" s="6">
         <f t="shared" si="2"/>
         <v>40</v>
@@ -3730,16 +3691,16 @@
         <v>5</v>
       </c>
       <c r="E92" s="17" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="F92" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A93" s="6">
         <f t="shared" si="2"/>
         <v>41</v>
@@ -3748,22 +3709,22 @@
         <v>2533</v>
       </c>
       <c r="C93" s="20" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D93" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E93" s="17" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F93" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A94" s="6">
         <f t="shared" si="2"/>
         <v>42</v>
@@ -3778,16 +3739,16 @@
         <v>5</v>
       </c>
       <c r="E94" s="17" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F94" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A95" s="6">
         <f t="shared" si="2"/>
         <v>43</v>
@@ -3802,16 +3763,16 @@
         <v>5</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F95" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A96" s="6">
         <f t="shared" si="2"/>
         <v>44</v>
@@ -3826,13 +3787,13 @@
         <v>5</v>
       </c>
       <c r="E96" s="17" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F96" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3850,13 +3811,13 @@
         <v>5</v>
       </c>
       <c r="E97" s="17" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F97" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3874,13 +3835,13 @@
         <v>5</v>
       </c>
       <c r="E98" s="17" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F98" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3898,13 +3859,13 @@
         <v>5</v>
       </c>
       <c r="E99" s="17" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F99" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3922,13 +3883,13 @@
         <v>5</v>
       </c>
       <c r="E100" s="17" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="F100" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3946,13 +3907,13 @@
         <v>5</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="F101" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3970,13 +3931,13 @@
         <v>5</v>
       </c>
       <c r="E102" s="17" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F102" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
@@ -5238,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="E156" s="17" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G156" s="21" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="157" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5262,13 +5223,13 @@
         <v>5</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G157" s="21" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="158" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5286,13 +5247,13 @@
         <v>5</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G158" s="21" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="159" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5310,16 +5271,16 @@
         <v>5</v>
       </c>
       <c r="E159" s="17" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G159" s="21" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="L159" s="15" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="160" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5337,13 +5298,13 @@
         <v>5</v>
       </c>
       <c r="E160" s="17" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G160" s="21" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="161" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5361,13 +5322,13 @@
         <v>5</v>
       </c>
       <c r="E161" s="17" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G161" s="21" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="162" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5385,13 +5346,13 @@
         <v>5</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G162" s="21" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="163" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5409,13 +5370,13 @@
         <v>5</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G163" s="21" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="164" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5433,13 +5394,13 @@
         <v>5</v>
       </c>
       <c r="E164" s="17" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G164" s="21" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="165" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5457,13 +5418,13 @@
         <v>5</v>
       </c>
       <c r="E165" s="17" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G165" s="21" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="166" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5481,16 +5442,16 @@
         <v>5</v>
       </c>
       <c r="E166" s="17" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G166" s="21" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="K166" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="167" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5508,13 +5469,13 @@
         <v>5</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G167" s="21" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="168" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5532,74 +5493,50 @@
         <v>5</v>
       </c>
       <c r="E168" s="17" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G168" s="21" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="B169" s="15">
-        <v>4202</v>
-      </c>
-      <c r="C169" s="15">
-        <v>36277215</v>
-      </c>
       <c r="D169" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E169" s="17" t="s">
-        <v>354</v>
-      </c>
       <c r="F169" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G169" s="21" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="B170" s="15">
-        <v>4222</v>
-      </c>
-      <c r="C170" s="15">
-        <v>35774738</v>
-      </c>
       <c r="D170" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E170" s="17" t="s">
-        <v>356</v>
-      </c>
       <c r="F170" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G170" s="21" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="B171" s="15">
-        <v>4298</v>
-      </c>
-      <c r="C171" s="15">
-        <v>44750498</v>
-      </c>
       <c r="D171" s="21" t="s">
         <v>5</v>
       </c>
@@ -5607,7 +5544,7 @@
         <v>41</v>
       </c>
       <c r="G171" s="21" t="s">
-        <v>357</v>
+        <v>269</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.3">
@@ -6107,18 +6044,18 @@
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="L206" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="L207" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>

--- a/Dataset/list.xlsx
+++ b/Dataset/list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FMFI\Bakalárka\na_git\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D40F92-1423-49B5-9BDC-CFE45C9D60D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B8564F0-9028-4021-80EA-3B3EBE8DDC13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hárok1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="363">
   <si>
     <t>Číslo vložky</t>
   </si>
@@ -1083,7 +1083,37 @@
     <t>test_statutar\97074.pdf</t>
   </si>
   <si>
-    <t>po 4317</t>
+    <t>test_statutar\115424.pdf</t>
+  </si>
+  <si>
+    <t>test_statutar\110824.pdf</t>
+  </si>
+  <si>
+    <t>test_statutar\25388.pdf</t>
+  </si>
+  <si>
+    <t>test_statutar\32336.pdf</t>
+  </si>
+  <si>
+    <t>test_statutar\127087.pdf</t>
+  </si>
+  <si>
+    <t>test_statutar\112922.pdf</t>
+  </si>
+  <si>
+    <t>test_statutar\93935.pdf</t>
+  </si>
+  <si>
+    <t>test_statutar\69314.pdf</t>
+  </si>
+  <si>
+    <t>test_statutar\103590.pdf</t>
+  </si>
+  <si>
+    <t>po 4666</t>
+  </si>
+  <si>
+    <t>test_statutar\55406.pdf</t>
   </si>
 </sst>
 </file>
@@ -1489,9 +1519,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P207"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K174" sqref="K174"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K170" sqref="K170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5280,7 +5310,7 @@
         <v>326</v>
       </c>
       <c r="L159" s="15" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
     </row>
     <row r="160" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -5514,7 +5544,7 @@
         <v>41</v>
       </c>
       <c r="G169" s="21" t="s">
-        <v>269</v>
+        <v>352</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.3">
@@ -5529,7 +5559,7 @@
         <v>41</v>
       </c>
       <c r="G170" s="21" t="s">
-        <v>269</v>
+        <v>353</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.3">
@@ -5544,7 +5574,7 @@
         <v>41</v>
       </c>
       <c r="G171" s="21" t="s">
-        <v>269</v>
+        <v>354</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.3">
@@ -5559,7 +5589,7 @@
         <v>41</v>
       </c>
       <c r="G172" s="21" t="s">
-        <v>269</v>
+        <v>355</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.3">
@@ -5574,7 +5604,7 @@
         <v>41</v>
       </c>
       <c r="G173" s="21" t="s">
-        <v>269</v>
+        <v>356</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.3">
@@ -5589,7 +5619,7 @@
         <v>41</v>
       </c>
       <c r="G174" s="21" t="s">
-        <v>269</v>
+        <v>357</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.3">
@@ -5604,7 +5634,7 @@
         <v>41</v>
       </c>
       <c r="G175" s="21" t="s">
-        <v>269</v>
+        <v>358</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.3">
@@ -5619,7 +5649,7 @@
         <v>41</v>
       </c>
       <c r="G176" s="21" t="s">
-        <v>269</v>
+        <v>359</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
@@ -5634,7 +5664,7 @@
         <v>41</v>
       </c>
       <c r="G177" s="21" t="s">
-        <v>269</v>
+        <v>360</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
@@ -5649,7 +5679,7 @@
         <v>41</v>
       </c>
       <c r="G178" s="21" t="s">
-        <v>269</v>
+        <v>362</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
